--- a/static/reason_codes.xlsx
+++ b/static/reason_codes.xlsx
@@ -1002,25 +1002,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C2">
-        <v>0.9999967190309149</v>
+        <v>0.9999999518634498</v>
       </c>
       <c r="D2">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E2">
-        <v>0.9976612115441829</v>
+        <v>1.00146731656911</v>
       </c>
       <c r="F2">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G2">
-        <v>0.986496554128579</v>
+        <v>1.000935864795864</v>
       </c>
       <c r="H2">
-        <v>-0.01350344587142105</v>
+        <v>0.0009358647958643829</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1028,25 +1028,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C3">
-        <v>0.9999967190309149</v>
+        <v>0.9999999518634498</v>
       </c>
       <c r="D3">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E3">
-        <v>0.9995794650790546</v>
+        <v>0.9977672059934213</v>
       </c>
       <c r="F3">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G3">
-        <v>0.9883933408134766</v>
+        <v>0.9972377177693537</v>
       </c>
       <c r="H3">
-        <v>-0.01160665918652337</v>
+        <v>-0.00276228223064634</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1054,25 +1054,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C4">
-        <v>0.9999967190309149</v>
+        <v>0.9999999518634498</v>
       </c>
       <c r="D4">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E4">
-        <v>0.9938602793409861</v>
+        <v>1.002816124105883</v>
       </c>
       <c r="F4">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G4">
-        <v>0.9827381575130322</v>
+        <v>1.00228395655675</v>
       </c>
       <c r="H4">
-        <v>-0.01726184248696783</v>
+        <v>0.002283956556749622</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1080,25 +1080,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C5">
-        <v>0.9999967190309149</v>
+        <v>0.9999999518634498</v>
       </c>
       <c r="D5">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E5">
-        <v>0.9946736458423037</v>
+        <v>1.002212656086016</v>
       </c>
       <c r="F5">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G5">
-        <v>0.9835424217677801</v>
+        <v>1.001680808781132</v>
       </c>
       <c r="H5">
-        <v>-0.01645757823221994</v>
+        <v>0.001680808781132193</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1106,25 +1106,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C6">
-        <v>0.9999949541063338</v>
+        <v>0.9999990860452344</v>
       </c>
       <c r="D6">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E6">
-        <v>0.98947478747039</v>
+        <v>0.9972941416444264</v>
       </c>
       <c r="F6">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G6">
-        <v>0.9784000161272309</v>
+        <v>0.9967640414456346</v>
       </c>
       <c r="H6">
-        <v>-0.02159998387276907</v>
+        <v>-0.003235958554365426</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1132,25 +1132,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C7">
-        <v>0.9999967190309149</v>
+        <v>0.9999999518634498</v>
       </c>
       <c r="D7">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E7">
-        <v>0.9857092608260833</v>
+        <v>0.9934416966497567</v>
       </c>
       <c r="F7">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G7">
-        <v>0.9746783556639216</v>
+        <v>0.9929145038571753</v>
       </c>
       <c r="H7">
-        <v>-0.02532164433607842</v>
+        <v>-0.007085496142824721</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1158,25 +1158,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C8">
-        <v>0.9999967190309149</v>
+        <v>0.9999999518634498</v>
       </c>
       <c r="D8">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E8">
-        <v>1.003925125441896</v>
+        <v>0.998946540733061</v>
       </c>
       <c r="F8">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G8">
-        <v>0.9926872554835744</v>
+        <v>0.9984160572871572</v>
       </c>
       <c r="H8">
-        <v>-0.007312744516425607</v>
+        <v>-0.00158394271284279</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1184,25 +1184,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C9">
-        <v>0.9999967190309149</v>
+        <v>0.9999999518634498</v>
       </c>
       <c r="D9">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E9">
-        <v>1.002728610326042</v>
+        <v>0.9997734548296003</v>
       </c>
       <c r="F9">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G9">
-        <v>0.9915045994967181</v>
+        <v>0.999242956518526</v>
       </c>
       <c r="H9">
-        <v>-0.008495400503281902</v>
+        <v>-0.0007570434814739846</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1210,25 +1210,25 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C10">
-        <v>0.9999967190309149</v>
+        <v>0.9999999518634498</v>
       </c>
       <c r="D10">
-        <v>0.9999928110954979</v>
+        <v>0.9999996173226297</v>
       </c>
       <c r="E10">
-        <v>0.9913752942092341</v>
+        <v>1.010580968777387</v>
       </c>
       <c r="F10">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G10">
-        <v>0.9802746518607306</v>
+        <v>1.010044191608231</v>
       </c>
       <c r="H10">
-        <v>-0.01972534813926941</v>
+        <v>0.01004419160823078</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1236,25 +1236,25 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C11">
-        <v>0.9999967190309149</v>
+        <v>0.9999999518634498</v>
       </c>
       <c r="D11">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E11">
-        <v>1.002094184183098</v>
+        <v>1.004544910244288</v>
       </c>
       <c r="F11">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G11">
-        <v>0.9908772747826412</v>
+        <v>1.004011880110603</v>
       </c>
       <c r="H11">
-        <v>-0.009122725217358796</v>
+        <v>0.004011880110602606</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1262,25 +1262,25 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C12">
-        <v>0.9999949541063338</v>
+        <v>0.9999990860452344</v>
       </c>
       <c r="D12">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E12">
-        <v>0.9857687313470097</v>
+        <v>1.003553897951347</v>
       </c>
       <c r="F12">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G12">
-        <v>0.9747323824984395</v>
+        <v>1.003020099367339</v>
       </c>
       <c r="H12">
-        <v>-0.02526761750156048</v>
+        <v>0.00302009936733949</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1288,25 +1288,25 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C13">
-        <v>0.9999949541063338</v>
+        <v>0.9999990860452344</v>
       </c>
       <c r="D13">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E13">
-        <v>0.9904062902057751</v>
+        <v>1.001106542732866</v>
       </c>
       <c r="F13">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G13">
-        <v>0.979318480443089</v>
+        <v>1.000574470744267</v>
       </c>
       <c r="H13">
-        <v>-0.020681519556911</v>
+        <v>0.0005744707442665309</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1314,25 +1314,25 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C14">
-        <v>0.9999949541063338</v>
+        <v>0.9999990860452344</v>
       </c>
       <c r="D14">
-        <v>0.9999949640162393</v>
+        <v>0.9999995902543377</v>
       </c>
       <c r="E14">
-        <v>0.9993306574994107</v>
+        <v>1.004610379387659</v>
       </c>
       <c r="F14">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G14">
-        <v>0.9881413206381813</v>
+        <v>1.004075877012299</v>
       </c>
       <c r="H14">
-        <v>-0.01185867936181872</v>
+        <v>0.004075877012298834</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1340,25 +1340,25 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C15">
-        <v>0.9999949541063338</v>
+        <v>0.9999990860452344</v>
       </c>
       <c r="D15">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E15">
-        <v>0.9907336360728346</v>
+        <v>1.00450538206062</v>
       </c>
       <c r="F15">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G15">
-        <v>0.9796421616033141</v>
+        <v>1.003971503643711</v>
       </c>
       <c r="H15">
-        <v>-0.02035783839668592</v>
+        <v>0.003971503643711127</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1366,25 +1366,25 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C16">
-        <v>0.9999949541063338</v>
+        <v>0.9999990860452344</v>
       </c>
       <c r="D16">
-        <v>0.9999932350101302</v>
+        <v>0.9999998658775334</v>
       </c>
       <c r="E16">
-        <v>0.991723850359034</v>
+        <v>0.990067847106735</v>
       </c>
       <c r="F16">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G16">
-        <v>0.9806179901287019</v>
+        <v>0.9895413548179097</v>
       </c>
       <c r="H16">
-        <v>-0.01938200987129812</v>
+        <v>-0.01045864518209028</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1392,25 +1392,25 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C17">
-        <v>0.9999949541063338</v>
+        <v>0.9999990860452344</v>
       </c>
       <c r="D17">
-        <v>0.9999949640162393</v>
+        <v>0.9999995902543377</v>
       </c>
       <c r="E17">
-        <v>0.9952609877667302</v>
+        <v>1.002625165602341</v>
       </c>
       <c r="F17">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G17">
-        <v>0.984117218311255</v>
+        <v>1.002091719458835</v>
       </c>
       <c r="H17">
-        <v>-0.01588278168874502</v>
+        <v>0.002091719458835017</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1418,25 +1418,25 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C18">
-        <v>0.9999949541063338</v>
+        <v>0.9999990860452344</v>
       </c>
       <c r="D18">
-        <v>0.9999932350101302</v>
+        <v>0.9999998658775334</v>
       </c>
       <c r="E18">
-        <v>0.9968653228813555</v>
+        <v>1.002493356541942</v>
       </c>
       <c r="F18">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G18">
-        <v>0.9857018856600189</v>
+        <v>1.001960256690896</v>
       </c>
       <c r="H18">
-        <v>-0.01429811433998107</v>
+        <v>0.001960256690896056</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1444,25 +1444,25 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C19">
-        <v>0.9999949541063338</v>
+        <v>0.9999990860452344</v>
       </c>
       <c r="D19">
-        <v>0.9999932350101302</v>
+        <v>0.9999998658775334</v>
       </c>
       <c r="E19">
-        <v>0.9951600357434347</v>
+        <v>0.9963827567592591</v>
       </c>
       <c r="F19">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G19">
-        <v>0.9840156952500829</v>
+        <v>0.9958529063659904</v>
       </c>
       <c r="H19">
-        <v>-0.01598430474991708</v>
+        <v>-0.004147093634009558</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1470,25 +1470,25 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C20">
-        <v>0.9999949541063338</v>
+        <v>0.9999990860452344</v>
       </c>
       <c r="D20">
-        <v>0.9999937396313585</v>
+        <v>0.9999997610421765</v>
       </c>
       <c r="E20">
-        <v>0.9903442686131084</v>
+        <v>1.013109157446836</v>
       </c>
       <c r="F20">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G20">
-        <v>0.979254351841192</v>
+        <v>1.012570306236227</v>
       </c>
       <c r="H20">
-        <v>-0.02074564815880797</v>
+        <v>0.01257030623622679</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1496,25 +1496,25 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C21">
-        <v>0.9999967190309149</v>
+        <v>0.9999999518634498</v>
       </c>
       <c r="D21">
-        <v>0.9999928110954979</v>
+        <v>0.9999996173226297</v>
       </c>
       <c r="E21">
-        <v>0.9934058300376464</v>
+        <v>1.008334947387538</v>
       </c>
       <c r="F21">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G21">
-        <v>0.9822824513428382</v>
+        <v>1.007799363208396</v>
       </c>
       <c r="H21">
-        <v>-0.0177175486571618</v>
+        <v>0.007799363208395693</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1522,25 +1522,25 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C22">
-        <v>0.9999995438532212</v>
+        <v>1.000000257115726</v>
       </c>
       <c r="D22">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E22">
-        <v>1.011629069653129</v>
+        <v>1.003829683845136</v>
       </c>
       <c r="F22">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G22">
-        <v>1.000310926008275</v>
+        <v>1.003297284685807</v>
       </c>
       <c r="H22">
-        <v>0.000310926008275203</v>
+        <v>0.003297284685807256</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1548,25 +1548,25 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C23">
-        <v>0.9999995438532212</v>
+        <v>1.000000257115726</v>
       </c>
       <c r="D23">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E23">
-        <v>1.003021651571323</v>
+        <v>0.9972972044086138</v>
       </c>
       <c r="F23">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G23">
-        <v>0.9917966966891163</v>
+        <v>0.9967679010966114</v>
       </c>
       <c r="H23">
-        <v>-0.008203303310883703</v>
+        <v>-0.003232098903388603</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1574,25 +1574,25 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C24">
-        <v>0.9999995438532212</v>
+        <v>1.000000257115726</v>
       </c>
       <c r="D24">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E24">
-        <v>1.001667108450237</v>
+        <v>1.006614104491046</v>
       </c>
       <c r="F24">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G24">
-        <v>0.9904573124485953</v>
+        <v>1.006079856348105</v>
       </c>
       <c r="H24">
-        <v>-0.009542687551404749</v>
+        <v>0.006079856348105261</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1600,25 +1600,25 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C25">
-        <v>0.9999995438532212</v>
+        <v>1.000000257115726</v>
       </c>
       <c r="D25">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E25">
-        <v>1.006726708879442</v>
+        <v>1.003112699834343</v>
       </c>
       <c r="F25">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G25">
-        <v>0.9954602901853089</v>
+        <v>1.002580310019163</v>
       </c>
       <c r="H25">
-        <v>-0.004539709814691095</v>
+        <v>0.002580310019163479</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1626,25 +1626,25 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C26">
-        <v>0.9999995438532212</v>
+        <v>1.000000257115726</v>
       </c>
       <c r="D26">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E26">
-        <v>1.002415767421889</v>
+        <v>0.9969619938394463</v>
       </c>
       <c r="F26">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G26">
-        <v>0.9912007025449596</v>
+        <v>0.9964332370832507</v>
       </c>
       <c r="H26">
-        <v>-0.008799297455040378</v>
+        <v>-0.003566762916749289</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1652,25 +1652,25 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C27">
-        <v>0.9999995438532212</v>
+        <v>1.000000257115726</v>
       </c>
       <c r="D27">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E27">
-        <v>0.9968439800427529</v>
+        <v>1.000202032158995</v>
       </c>
       <c r="F27">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G27">
-        <v>0.9856881603423012</v>
+        <v>0.999671187145138</v>
       </c>
       <c r="H27">
-        <v>-0.01431183965769878</v>
+        <v>-0.0003288128548619706</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1678,25 +1678,25 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C28">
-        <v>0.9999995438532212</v>
+        <v>1.000000257115726</v>
       </c>
       <c r="D28">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E28">
-        <v>0.9991524558339168</v>
+        <v>0.9993053242672265</v>
       </c>
       <c r="F28">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G28">
-        <v>0.9879739010083674</v>
+        <v>0.9987753246835176</v>
       </c>
       <c r="H28">
-        <v>-0.01202609899163265</v>
+        <v>-0.001224675316482404</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1704,25 +1704,25 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C29">
-        <v>0.9999995438532212</v>
+        <v>1.000000257115726</v>
       </c>
       <c r="D29">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E29">
-        <v>0.9975069302356449</v>
+        <v>1.008231418672918</v>
       </c>
       <c r="F29">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G29">
-        <v>0.9863467856116716</v>
+        <v>1.007696684974215</v>
       </c>
       <c r="H29">
-        <v>-0.01365321438832845</v>
+        <v>0.007696684974215495</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1730,25 +1730,25 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C30">
-        <v>0.9999995438532212</v>
+        <v>1.000000257115726</v>
       </c>
       <c r="D30">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E30">
-        <v>1.00789819995589</v>
+        <v>1.008511748922132</v>
       </c>
       <c r="F30">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G30">
-        <v>0.996619138762611</v>
+        <v>1.007976921597549</v>
       </c>
       <c r="H30">
-        <v>-0.00338086123738901</v>
+        <v>0.007976921597549147</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1756,25 +1756,25 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C31">
-        <v>0.9999995438532212</v>
+        <v>1.000000257115726</v>
       </c>
       <c r="D31">
-        <v>0.9999932350101302</v>
+        <v>0.9999998658775334</v>
       </c>
       <c r="E31">
-        <v>0.9965320957338273</v>
+        <v>1.015514600834464</v>
       </c>
       <c r="F31">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G31">
-        <v>0.9853769128030566</v>
+        <v>1.014975765232783</v>
       </c>
       <c r="H31">
-        <v>-0.01462308719694339</v>
+        <v>0.0149757652327831</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1782,25 +1782,25 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C32">
-        <v>0.9999995438532212</v>
+        <v>1.000000257115726</v>
       </c>
       <c r="D32">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E32">
-        <v>0.9994489400814588</v>
+        <v>0.979799947442681</v>
       </c>
       <c r="F32">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G32">
-        <v>0.9882644318094628</v>
+        <v>0.9792803463720167</v>
       </c>
       <c r="H32">
-        <v>-0.01173556819053723</v>
+        <v>-0.02071965362798334</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1808,25 +1808,25 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C33">
-        <v>0.9999995438532212</v>
+        <v>1.000000257115726</v>
       </c>
       <c r="D33">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E33">
-        <v>0.9990395144786118</v>
+        <v>1.008342768439628</v>
       </c>
       <c r="F33">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G33">
-        <v>0.9878591242467601</v>
+        <v>1.007807602829407</v>
       </c>
       <c r="H33">
-        <v>-0.01214087575323985</v>
+        <v>0.007807602829407401</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1834,25 +1834,25 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C34">
-        <v>0.9999995438532212</v>
+        <v>1.000000257115726</v>
       </c>
       <c r="D34">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E34">
-        <v>0.9991294803345413</v>
+        <v>0.9991199876955207</v>
       </c>
       <c r="F34">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G34">
-        <v>0.9879511825597331</v>
+        <v>0.998590086408402</v>
       </c>
       <c r="H34">
-        <v>-0.01204881744026687</v>
+        <v>-0.001409913591598033</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1860,25 +1860,25 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C35">
-        <v>0.9999995438532212</v>
+        <v>1.000000257115726</v>
       </c>
       <c r="D35">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E35">
-        <v>1.005759273355731</v>
+        <v>1.008593484650234</v>
       </c>
       <c r="F35">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G35">
-        <v>0.9945041481948933</v>
+        <v>1.008058613980096</v>
       </c>
       <c r="H35">
-        <v>-0.0054958518051067</v>
+        <v>0.008058613980096219</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1886,25 +1886,25 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C36">
-        <v>0.9999995438532212</v>
+        <v>1.000000257115726</v>
       </c>
       <c r="D36">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E36">
-        <v>0.9944963630563119</v>
+        <v>0.9899885331555033</v>
       </c>
       <c r="F36">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G36">
-        <v>0.9833668158642476</v>
+        <v>0.9894631088315132</v>
       </c>
       <c r="H36">
-        <v>-0.01663318413575243</v>
+        <v>-0.01053689116848677</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1912,25 +1912,25 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C37">
-        <v>1.000000809230905</v>
+        <v>1.000000334083175</v>
       </c>
       <c r="D37">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E37">
-        <v>0.9999814922025044</v>
+        <v>0.9906967558055416</v>
       </c>
       <c r="F37">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G37">
-        <v>0.98879181136094</v>
+        <v>0.9901710318119415</v>
       </c>
       <c r="H37">
-        <v>-0.01120818863906003</v>
+        <v>-0.009828968188058451</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1938,25 +1938,25 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C38">
-        <v>1.000000809230905</v>
+        <v>1.000000334083175</v>
       </c>
       <c r="D38">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E38">
-        <v>1.002697761230188</v>
+        <v>0.9940711135747641</v>
       </c>
       <c r="F38">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G38">
-        <v>0.9914807959927048</v>
+        <v>0.9935439665195224</v>
       </c>
       <c r="H38">
-        <v>-0.008519204007295222</v>
+        <v>-0.00645603348047763</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1964,25 +1964,25 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C39">
-        <v>1.000000809230905</v>
+        <v>1.000000334083175</v>
       </c>
       <c r="D39">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E39">
-        <v>1.00756719193615</v>
+        <v>1.000535664366479</v>
       </c>
       <c r="F39">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G39">
-        <v>0.9962957534196117</v>
+        <v>1.000005089217545</v>
       </c>
       <c r="H39">
-        <v>-0.00370424658038826</v>
+        <v>5.089217545384273E-06</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1990,25 +1990,25 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C40">
-        <v>1.000000809230905</v>
+        <v>1.000000334083175</v>
       </c>
       <c r="D40">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E40">
-        <v>1.016049454858873</v>
+        <v>0.9950808643537949</v>
       </c>
       <c r="F40">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G40">
-        <v>1.004680446920284</v>
+        <v>0.9945532361558725</v>
       </c>
       <c r="H40">
-        <v>0.004680446920284353</v>
+        <v>-0.005446763844127456</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2016,25 +2016,25 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C41">
-        <v>1.000000809230905</v>
+        <v>1.000000334083175</v>
       </c>
       <c r="D41">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E41">
-        <v>1.008357317565236</v>
+        <v>0.9985091853686201</v>
       </c>
       <c r="F41">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G41">
-        <v>0.9970770400824042</v>
+        <v>0.9979796848434453</v>
       </c>
       <c r="H41">
-        <v>-0.002922959917595835</v>
+        <v>-0.002020315156554653</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2042,25 +2042,25 @@
         <v>48</v>
       </c>
       <c r="B42">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C42">
-        <v>1.000000809230905</v>
+        <v>1.000000334083175</v>
       </c>
       <c r="D42">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E42">
-        <v>0.9956091107188686</v>
+        <v>0.9968854899824007</v>
       </c>
       <c r="F42">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G42">
-        <v>0.9844688184532074</v>
+        <v>0.9963569049060952</v>
       </c>
       <c r="H42">
-        <v>-0.01553118154679256</v>
+        <v>-0.003643095093904813</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2068,25 +2068,25 @@
         <v>49</v>
       </c>
       <c r="B43">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C43">
-        <v>1.000000809230905</v>
+        <v>1.000000334083175</v>
       </c>
       <c r="D43">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E43">
-        <v>1.002457104141747</v>
+        <v>0.9941308636930295</v>
       </c>
       <c r="F43">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G43">
-        <v>0.9912428310836021</v>
+        <v>0.9936036849528324</v>
       </c>
       <c r="H43">
-        <v>-0.008757168916397884</v>
+        <v>-0.006396315047167644</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2094,25 +2094,25 @@
         <v>50</v>
       </c>
       <c r="B44">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C44">
-        <v>1.000000809230905</v>
+        <v>1.000000334083175</v>
       </c>
       <c r="D44">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E44">
-        <v>0.983197637307571</v>
+        <v>1.000142357857329</v>
       </c>
       <c r="F44">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G44">
-        <v>0.9721957659215115</v>
+        <v>0.9996116214524096</v>
       </c>
       <c r="H44">
-        <v>-0.02780423407848853</v>
+        <v>-0.00038837854759044</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2120,25 +2120,25 @@
         <v>51</v>
       </c>
       <c r="B45">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C45">
-        <v>1.000000809230905</v>
+        <v>1.000000334083175</v>
       </c>
       <c r="D45">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E45">
-        <v>0.9981352156534677</v>
+        <v>1.000567177075602</v>
       </c>
       <c r="F45">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G45">
-        <v>0.9869666577291638</v>
+        <v>1.000036639834406</v>
       </c>
       <c r="H45">
-        <v>-0.01303334227083619</v>
+        <v>3.663983440649332E-05</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2146,25 +2146,25 @@
         <v>52</v>
       </c>
       <c r="B46">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C46">
-        <v>1.000000809230905</v>
+        <v>1.000000334083175</v>
       </c>
       <c r="D46">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E46">
-        <v>0.9937948780104068</v>
+        <v>1.00643857922338</v>
       </c>
       <c r="F46">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G46">
-        <v>0.9826775074219304</v>
+        <v>1.005904873811287</v>
       </c>
       <c r="H46">
-        <v>-0.01732249257806961</v>
+        <v>0.005904873811287459</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2172,25 +2172,25 @@
         <v>53</v>
       </c>
       <c r="B47">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C47">
-        <v>1.000000809230905</v>
+        <v>1.000000334083175</v>
       </c>
       <c r="D47">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E47">
-        <v>0.9944435929979755</v>
+        <v>1.002570133945304</v>
       </c>
       <c r="F47">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G47">
-        <v>0.983318965373784</v>
+        <v>1.002038479935279</v>
       </c>
       <c r="H47">
-        <v>-0.01668103462621595</v>
+        <v>0.002038479935278614</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2198,25 +2198,25 @@
         <v>54</v>
       </c>
       <c r="B48">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C48">
-        <v>1.000000809230905</v>
+        <v>1.000000334083175</v>
       </c>
       <c r="D48">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E48">
-        <v>1.001275518302916</v>
+        <v>0.99560486219057</v>
       </c>
       <c r="F48">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G48">
-        <v>0.9900718222014491</v>
+        <v>0.9950769561498669</v>
       </c>
       <c r="H48">
-        <v>-0.00992817779855093</v>
+        <v>-0.004923043850133091</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2224,25 +2224,25 @@
         <v>55</v>
       </c>
       <c r="B49">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C49">
-        <v>1.000000809230905</v>
+        <v>1.000000334083175</v>
       </c>
       <c r="D49">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E49">
-        <v>1.001753067711004</v>
+        <v>0.989315075257803</v>
       </c>
       <c r="F49">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G49">
-        <v>0.9905440281068306</v>
+        <v>0.9887905042917291</v>
       </c>
       <c r="H49">
-        <v>-0.009455971893169379</v>
+        <v>-0.0112094957082709</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2250,25 +2250,25 @@
         <v>56</v>
       </c>
       <c r="B50">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C50">
-        <v>1.000000809230905</v>
+        <v>1.000000334083175</v>
       </c>
       <c r="D50">
-        <v>0.9999932350101302</v>
+        <v>0.9999998658775334</v>
       </c>
       <c r="E50">
-        <v>0.9994434921971376</v>
+        <v>1.001820658352413</v>
       </c>
       <c r="F50">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G50">
-        <v>0.988256969603915</v>
+        <v>1.001289165871191</v>
       </c>
       <c r="H50">
-        <v>-0.01174303039608504</v>
+        <v>0.001289165871190878</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2276,25 +2276,25 @@
         <v>57</v>
       </c>
       <c r="B51">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C51">
-        <v>1.000000809230905</v>
+        <v>1.000000334083175</v>
       </c>
       <c r="D51">
-        <v>0.9999932350101302</v>
+        <v>0.9999998658775334</v>
       </c>
       <c r="E51">
-        <v>1.002717642933289</v>
+        <v>0.9906749904208115</v>
       </c>
       <c r="F51">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G51">
-        <v>0.9914944735846775</v>
+        <v>0.9901494110126079</v>
       </c>
       <c r="H51">
-        <v>-0.00850552641532254</v>
+        <v>-0.009850588987392106</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2302,25 +2302,25 @@
         <v>58</v>
       </c>
       <c r="B52">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C52">
-        <v>0.9999865313471579</v>
+        <v>0.9999992811648167</v>
       </c>
       <c r="D52">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E52">
-        <v>1.002433945459456</v>
+        <v>0.9889272127531968</v>
       </c>
       <c r="F52">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G52">
-        <v>0.9912057789610356</v>
+        <v>0.988401752755634</v>
       </c>
       <c r="H52">
-        <v>-0.008794221038964434</v>
+        <v>-0.01159824724436598</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2328,25 +2328,25 @@
         <v>59</v>
       </c>
       <c r="B53">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C53">
-        <v>0.9999865313471579</v>
+        <v>0.9999992811648167</v>
       </c>
       <c r="D53">
-        <v>0.9999932350101302</v>
+        <v>0.9999998658775334</v>
       </c>
       <c r="E53">
-        <v>1.000569114067164</v>
+        <v>1.006818784960601</v>
       </c>
       <c r="F53">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G53">
-        <v>0.9893558665698196</v>
+        <v>1.006283581305178</v>
       </c>
       <c r="H53">
-        <v>-0.01064413343018045</v>
+        <v>0.006283581305177588</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2354,25 +2354,25 @@
         <v>60</v>
       </c>
       <c r="B54">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C54">
-        <v>0.9999865313471579</v>
+        <v>0.9999992811648167</v>
       </c>
       <c r="D54">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E54">
-        <v>1.007278315344688</v>
+        <v>1.000618980043376</v>
       </c>
       <c r="F54">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G54">
-        <v>0.9959927630094126</v>
+        <v>1.000086937703064</v>
       </c>
       <c r="H54">
-        <v>-0.004007236990587359</v>
+        <v>8.693770306367199E-05</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2380,25 +2380,25 @@
         <v>61</v>
       </c>
       <c r="B55">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C55">
-        <v>0.9999865313471579</v>
+        <v>0.9999992811648167</v>
       </c>
       <c r="D55">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E55">
-        <v>1.011997633704022</v>
+        <v>0.986602925907448</v>
       </c>
       <c r="F55">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G55">
-        <v>1.000662345250649</v>
+        <v>0.9860787009044778</v>
       </c>
       <c r="H55">
-        <v>0.0006623452506486771</v>
+        <v>-0.0139212990955222</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2406,25 +2406,25 @@
         <v>62</v>
       </c>
       <c r="B56">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C56">
-        <v>0.9999865313471579</v>
+        <v>0.9999992811648167</v>
       </c>
       <c r="D56">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E56">
-        <v>1.010000575940877</v>
+        <v>0.9896964502740521</v>
       </c>
       <c r="F56">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G56">
-        <v>0.9986845233814221</v>
+        <v>0.9891702155872185</v>
       </c>
       <c r="H56">
-        <v>-0.001315476618577893</v>
+        <v>-0.01082978441278148</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2432,25 +2432,25 @@
         <v>63</v>
       </c>
       <c r="B57">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C57">
-        <v>0.9999865313471579</v>
+        <v>0.9999992811648167</v>
       </c>
       <c r="D57">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E57">
-        <v>1.012507338990257</v>
+        <v>0.98439201947927</v>
       </c>
       <c r="F57">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G57">
-        <v>1.001166341376849</v>
+        <v>0.9838689692269502</v>
       </c>
       <c r="H57">
-        <v>0.00116634137684879</v>
+        <v>-0.01613103077304978</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2458,25 +2458,25 @@
         <v>64</v>
       </c>
       <c r="B58">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C58">
-        <v>0.9999865313471579</v>
+        <v>0.9999992811648167</v>
       </c>
       <c r="D58">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E58">
-        <v>1.00874378713342</v>
+        <v>0.9874162126259551</v>
       </c>
       <c r="F58">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G58">
-        <v>0.997441815643363</v>
+        <v>0.9868911903716248</v>
       </c>
       <c r="H58">
-        <v>-0.002558184356637017</v>
+        <v>-0.01310880962837524</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2484,25 +2484,25 @@
         <v>65</v>
       </c>
       <c r="B59">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C59">
-        <v>0.9999865313471579</v>
+        <v>0.9999992811648167</v>
       </c>
       <c r="D59">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E59">
-        <v>1.007839431031641</v>
+        <v>0.9833537481744543</v>
       </c>
       <c r="F59">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G59">
-        <v>0.9965475919528164</v>
+        <v>0.9828308859861804</v>
       </c>
       <c r="H59">
-        <v>-0.003452408047183608</v>
+        <v>-0.0171691140138196</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2510,25 +2510,25 @@
         <v>66</v>
       </c>
       <c r="B60">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C60">
-        <v>0.9999865313471579</v>
+        <v>0.9999992811648167</v>
       </c>
       <c r="D60">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E60">
-        <v>0.9998418394280154</v>
+        <v>0.9913792099584988</v>
       </c>
       <c r="F60">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G60">
-        <v>0.9886427068606928</v>
+        <v>0.9908524471082801</v>
       </c>
       <c r="H60">
-        <v>-0.01135729313930722</v>
+        <v>-0.009147552891719868</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2536,25 +2536,25 @@
         <v>67</v>
       </c>
       <c r="B61">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C61">
-        <v>0.9999865313471579</v>
+        <v>0.9999992811648167</v>
       </c>
       <c r="D61">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E61">
-        <v>0.9928960295260306</v>
+        <v>0.9936368347357606</v>
       </c>
       <c r="F61">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G61">
-        <v>0.9817720772592168</v>
+        <v>0.9931089265516807</v>
       </c>
       <c r="H61">
-        <v>-0.01822792274078322</v>
+        <v>-0.006891073448319296</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2562,25 +2562,25 @@
         <v>68</v>
       </c>
       <c r="B62">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C62">
-        <v>0.9999865313471579</v>
+        <v>0.9999992811648167</v>
       </c>
       <c r="D62">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E62">
-        <v>1.00550155432388</v>
+        <v>1.001410337246612</v>
       </c>
       <c r="F62">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G62">
-        <v>0.9942359088298238</v>
+        <v>1.000877874131212</v>
       </c>
       <c r="H62">
-        <v>-0.005764091170176178</v>
+        <v>0.0008778741312120975</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2588,25 +2588,25 @@
         <v>69</v>
       </c>
       <c r="B63">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C63">
-        <v>0.9999865313471579</v>
+        <v>0.9999992811648167</v>
       </c>
       <c r="D63">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E63">
-        <v>0.9968283211398268</v>
+        <v>0.992755769489818</v>
       </c>
       <c r="F63">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G63">
-        <v>0.9856598506028046</v>
+        <v>0.9922279081225119</v>
       </c>
       <c r="H63">
-        <v>-0.01434014939719541</v>
+        <v>-0.007772091877488063</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2614,25 +2614,25 @@
         <v>70</v>
       </c>
       <c r="B64">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C64">
-        <v>0.9999865313471579</v>
+        <v>0.9999992811648167</v>
       </c>
       <c r="D64">
-        <v>0.9999937396313585</v>
+        <v>0.9999997610421765</v>
       </c>
       <c r="E64">
-        <v>1.005049170161242</v>
+        <v>1.002021664319694</v>
       </c>
       <c r="F64">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G64">
-        <v>0.9937862167486134</v>
+        <v>1.00148890572107</v>
       </c>
       <c r="H64">
-        <v>-0.006213783251386551</v>
+        <v>0.001488905721069855</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2640,25 +2640,25 @@
         <v>71</v>
       </c>
       <c r="B65">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C65">
-        <v>0.9999865313471579</v>
+        <v>0.9999992811648167</v>
       </c>
       <c r="D65">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E65">
-        <v>1.007496481134403</v>
+        <v>0.9867302347563065</v>
       </c>
       <c r="F65">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G65">
-        <v>0.9962116096593409</v>
+        <v>0.9862059421086132</v>
       </c>
       <c r="H65">
-        <v>-0.003788390340659142</v>
+        <v>-0.01379405789138677</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2666,25 +2666,25 @@
         <v>72</v>
       </c>
       <c r="B66">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C66">
-        <v>0.9999865313471579</v>
+        <v>0.9999992811648167</v>
       </c>
       <c r="D66">
-        <v>0.9999932350101302</v>
+        <v>0.9999998658775334</v>
       </c>
       <c r="E66">
-        <v>1.008132157149684</v>
+        <v>0.9879704256206783</v>
       </c>
       <c r="F66">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G66">
-        <v>0.9968341516154131</v>
+        <v>0.9874452413560011</v>
       </c>
       <c r="H66">
-        <v>-0.003165848384586889</v>
+        <v>-0.01255475864399891</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2692,25 +2692,25 @@
         <v>73</v>
       </c>
       <c r="B67">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C67">
-        <v>1.000024292633874</v>
+        <v>1.000002083006508</v>
       </c>
       <c r="D67">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E67">
-        <v>1.011631601641033</v>
+        <v>0.9927985585592801</v>
       </c>
       <c r="F67">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G67">
-        <v>1.000335048080729</v>
+        <v>0.9922734546278031</v>
       </c>
       <c r="H67">
-        <v>0.0003350480807293721</v>
+        <v>-0.007726545372196858</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2718,25 +2718,25 @@
         <v>74</v>
       </c>
       <c r="B68">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C68">
-        <v>1.000024292633874</v>
+        <v>1.000002083006508</v>
       </c>
       <c r="D68">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E68">
-        <v>1.007326881535534</v>
+        <v>0.992096417328536</v>
       </c>
       <c r="F68">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G68">
-        <v>0.9960815221355612</v>
+        <v>0.9915720516170056</v>
       </c>
       <c r="H68">
-        <v>-0.003918477864438774</v>
+        <v>-0.008427948382994432</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2744,25 +2744,25 @@
         <v>75</v>
       </c>
       <c r="B69">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C69">
-        <v>1.000024292633874</v>
+        <v>1.000002083006508</v>
       </c>
       <c r="D69">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E69">
-        <v>1.009490765106052</v>
+        <v>0.9792553265721132</v>
       </c>
       <c r="F69">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G69">
-        <v>0.9982185861264582</v>
+        <v>0.9787378013858171</v>
       </c>
       <c r="H69">
-        <v>-0.001781413873541804</v>
+        <v>-0.02126219861418288</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2770,25 +2770,25 @@
         <v>76</v>
       </c>
       <c r="B70">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C70">
-        <v>1.000024292633874</v>
+        <v>1.000002083006508</v>
       </c>
       <c r="D70">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E70">
-        <v>1.021047191199239</v>
+        <v>0.9930411658380954</v>
       </c>
       <c r="F70">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G70">
-        <v>1.009648664226678</v>
+        <v>0.9925163007862632</v>
       </c>
       <c r="H70">
-        <v>0.009648664226678427</v>
+        <v>-0.007483699213736816</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2796,25 +2796,25 @@
         <v>77</v>
       </c>
       <c r="B71">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C71">
-        <v>1.000024292633874</v>
+        <v>1.000002083006508</v>
       </c>
       <c r="D71">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E71">
-        <v>1.005684464035732</v>
+        <v>1.002254396227166</v>
       </c>
       <c r="F71">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G71">
-        <v>0.9944574398707342</v>
+        <v>1.001724661586023</v>
       </c>
       <c r="H71">
-        <v>-0.005542560129265794</v>
+        <v>0.001724661586023357</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2822,25 +2822,25 @@
         <v>78</v>
       </c>
       <c r="B72">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C72">
-        <v>1.000024292633874</v>
+        <v>1.000002083006508</v>
       </c>
       <c r="D72">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E72">
-        <v>1.014879905815322</v>
+        <v>1.00418533481844</v>
       </c>
       <c r="F72">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G72">
-        <v>1.003550227735742</v>
+        <v>1.003654579593038</v>
       </c>
       <c r="H72">
-        <v>0.003550227735742428</v>
+        <v>0.00365457959303761</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2848,25 +2848,25 @@
         <v>79</v>
       </c>
       <c r="B73">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C73">
-        <v>1.000024292633874</v>
+        <v>1.000002083006508</v>
       </c>
       <c r="D73">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E73">
-        <v>1.005302408784483</v>
+        <v>0.9825239637997393</v>
       </c>
       <c r="F73">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G73">
-        <v>0.9940769978425162</v>
+        <v>0.9820047111762322</v>
       </c>
       <c r="H73">
-        <v>-0.005923002157483759</v>
+        <v>-0.01799528882376777</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2874,25 +2874,25 @@
         <v>80</v>
       </c>
       <c r="B74">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C74">
-        <v>1.000024292633874</v>
+        <v>1.000002083006508</v>
       </c>
       <c r="D74">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E74">
-        <v>1.007473352026717</v>
+        <v>0.9889565387971629</v>
       </c>
       <c r="F74">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G74">
-        <v>0.9962232322565486</v>
+        <v>0.9884334669593715</v>
       </c>
       <c r="H74">
-        <v>-0.00377676774345137</v>
+        <v>-0.01156653304062849</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2900,25 +2900,25 @@
         <v>81</v>
       </c>
       <c r="B75">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C75">
-        <v>1.000024292633874</v>
+        <v>1.000002083006508</v>
       </c>
       <c r="D75">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E75">
-        <v>1.01461943566071</v>
+        <v>0.9992110276495221</v>
       </c>
       <c r="F75">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G75">
-        <v>1.003292665356705</v>
+        <v>0.9986829015598288</v>
       </c>
       <c r="H75">
-        <v>0.00329266535670536</v>
+        <v>-0.001317098440171249</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2926,25 +2926,25 @@
         <v>82</v>
       </c>
       <c r="B76">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C76">
-        <v>1.000024292633874</v>
+        <v>1.000002083006508</v>
       </c>
       <c r="D76">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E76">
-        <v>1.017269508187551</v>
+        <v>0.9916753846145588</v>
       </c>
       <c r="F76">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G76">
-        <v>1.005910470182316</v>
+        <v>0.9911512955703211</v>
       </c>
       <c r="H76">
-        <v>0.005910470182316274</v>
+        <v>-0.008848704429678889</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2952,25 +2952,25 @@
         <v>83</v>
       </c>
       <c r="B77">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C77">
-        <v>0.9999597835295408</v>
+        <v>0.9999967026996047</v>
       </c>
       <c r="D77">
-        <v>0.9999932350101302</v>
+        <v>0.9999998658775334</v>
       </c>
       <c r="E77">
-        <v>1.008903384773214</v>
+        <v>0.9898092641527808</v>
       </c>
       <c r="F77">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G77">
-        <v>0.9975700522966526</v>
+        <v>0.9892805515663807</v>
       </c>
       <c r="H77">
-        <v>-0.002429947703347368</v>
+        <v>-0.01071944843361927</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2978,25 +2978,25 @@
         <v>84</v>
       </c>
       <c r="B78">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C78">
-        <v>0.9999597835295408</v>
+        <v>0.9999967026996047</v>
       </c>
       <c r="D78">
-        <v>0.9999937396313585</v>
+        <v>0.9999997610421765</v>
       </c>
       <c r="E78">
-        <v>0.9977524394946554</v>
+        <v>1.008531832300974</v>
       </c>
       <c r="F78">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G78">
-        <v>0.9865448669661695</v>
+        <v>1.007993013268579</v>
       </c>
       <c r="H78">
-        <v>-0.0134551330338305</v>
+        <v>0.007993013268579041</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3004,25 +3004,25 @@
         <v>85</v>
       </c>
       <c r="B79">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C79">
-        <v>0.9999597835295408</v>
+        <v>0.9999967026996047</v>
       </c>
       <c r="D79">
-        <v>0.9999949640162393</v>
+        <v>0.9999995902543377</v>
       </c>
       <c r="E79">
-        <v>1.006875586896539</v>
+        <v>1.007882814308525</v>
       </c>
       <c r="F79">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G79">
-        <v>0.9955667546678829</v>
+        <v>1.007344169978803</v>
       </c>
       <c r="H79">
-        <v>-0.004433245332117086</v>
+        <v>0.007344169978803494</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3030,25 +3030,25 @@
         <v>86</v>
       </c>
       <c r="B80">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C80">
-        <v>0.9999597835295408</v>
+        <v>0.9999967026996047</v>
       </c>
       <c r="D80">
-        <v>0.9999949640162393</v>
+        <v>0.9999995902543377</v>
       </c>
       <c r="E80">
-        <v>0.9947083307475232</v>
+        <v>1.000464875962836</v>
       </c>
       <c r="F80">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G80">
-        <v>0.9835361563743791</v>
+        <v>0.9999301960130718</v>
       </c>
       <c r="H80">
-        <v>-0.01646384362562092</v>
+        <v>-6.980398692824075E-05</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3056,25 +3056,25 @@
         <v>87</v>
       </c>
       <c r="B81">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C81">
-        <v>0.9999597835295408</v>
+        <v>0.9999967026996047</v>
       </c>
       <c r="D81">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E81">
-        <v>0.9938801242412092</v>
+        <v>1.007530585159564</v>
       </c>
       <c r="F81">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G81">
-        <v>0.9827188599860309</v>
+        <v>1.006992698876416</v>
       </c>
       <c r="H81">
-        <v>-0.01728114001396908</v>
+        <v>0.006992698876415515</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3082,25 +3082,25 @@
         <v>88</v>
       </c>
       <c r="B82">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C82">
-        <v>0.9999597835295408</v>
+        <v>0.9999967026996047</v>
       </c>
       <c r="D82">
-        <v>0.9999937396313585</v>
+        <v>0.9999997610421765</v>
       </c>
       <c r="E82">
-        <v>0.9906845362572038</v>
+        <v>1.006238940211021</v>
       </c>
       <c r="F82">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G82">
-        <v>0.9795563562062729</v>
+        <v>1.005701346181008</v>
       </c>
       <c r="H82">
-        <v>-0.0204436437937271</v>
+        <v>0.005701346181008482</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3108,25 +3108,25 @@
         <v>89</v>
       </c>
       <c r="B83">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C83">
-        <v>0.9999597835295408</v>
+        <v>0.9999967026996047</v>
       </c>
       <c r="D83">
-        <v>0.9999949640162393</v>
+        <v>0.9999995902543377</v>
       </c>
       <c r="E83">
-        <v>1.006892506769242</v>
+        <v>1.017510737389535</v>
       </c>
       <c r="F83">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G83">
-        <v>0.9955834845032033</v>
+        <v>1.016966947594388</v>
       </c>
       <c r="H83">
-        <v>-0.004416515496796669</v>
+        <v>0.01696694759438766</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3134,25 +3134,25 @@
         <v>90</v>
       </c>
       <c r="B84">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C84">
-        <v>0.9999597835295408</v>
+        <v>0.9999967026996047</v>
       </c>
       <c r="D84">
-        <v>0.9999928110954979</v>
+        <v>0.9999996173226297</v>
       </c>
       <c r="E84">
-        <v>0.9944366819973677</v>
+        <v>1.002044515608202</v>
       </c>
       <c r="F84">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G84">
-        <v>0.9832654417688064</v>
+        <v>1.001509018558393</v>
       </c>
       <c r="H84">
-        <v>-0.01673455823119363</v>
+        <v>0.001509018558393027</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3160,25 +3160,25 @@
         <v>91</v>
       </c>
       <c r="B85">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C85">
-        <v>1.000013528158894</v>
+        <v>0.9999997699394201</v>
       </c>
       <c r="D85">
-        <v>0.9999928110954979</v>
+        <v>0.9999996173226297</v>
       </c>
       <c r="E85">
-        <v>0.9994983372097761</v>
+        <v>0.9952689936081968</v>
       </c>
       <c r="F85">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G85">
-        <v>0.9883233520310374</v>
+        <v>0.9947401685348589</v>
       </c>
       <c r="H85">
-        <v>-0.01167664796896262</v>
+        <v>-0.005259831465141085</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3186,25 +3186,25 @@
         <v>92</v>
       </c>
       <c r="B86">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C86">
-        <v>1.000013528158894</v>
+        <v>0.9999997699394201</v>
       </c>
       <c r="D86">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E86">
-        <v>0.9972901761392832</v>
+        <v>1.00298042216318</v>
       </c>
       <c r="F86">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G86">
-        <v>0.9861462469521962</v>
+        <v>1.002447985056067</v>
       </c>
       <c r="H86">
-        <v>-0.01385375304780379</v>
+        <v>0.00244798505606747</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3212,25 +3212,25 @@
         <v>93</v>
       </c>
       <c r="B87">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C87">
-        <v>1.000013528158894</v>
+        <v>0.9999997699394201</v>
       </c>
       <c r="D87">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E87">
-        <v>1.002324947645064</v>
+        <v>0.9975510591533734</v>
       </c>
       <c r="F87">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G87">
-        <v>0.9911216496340567</v>
+        <v>0.9970211353858793</v>
       </c>
       <c r="H87">
-        <v>-0.008878350365943311</v>
+        <v>-0.002978864614120669</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3238,25 +3238,25 @@
         <v>94</v>
       </c>
       <c r="B88">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C88">
-        <v>1.000013528158894</v>
+        <v>0.9999997699394201</v>
       </c>
       <c r="D88">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E88">
-        <v>1.005098699241649</v>
+        <v>1.000003412690244</v>
       </c>
       <c r="F88">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G88">
-        <v>0.9938648646730844</v>
+        <v>0.9994726105311427</v>
       </c>
       <c r="H88">
-        <v>-0.006135135326915564</v>
+        <v>-0.0005273894688573311</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3264,25 +3264,25 @@
         <v>95</v>
       </c>
       <c r="B89">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C89">
-        <v>1.000013528158894</v>
+        <v>0.9999997699394201</v>
       </c>
       <c r="D89">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E89">
-        <v>0.9908065489312682</v>
+        <v>1.000683850379786</v>
       </c>
       <c r="F89">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G89">
-        <v>0.9797350691517963</v>
+        <v>1.000152632419139</v>
       </c>
       <c r="H89">
-        <v>-0.02026493084820369</v>
+        <v>0.0001526324191385431</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3290,25 +3290,25 @@
         <v>96</v>
       </c>
       <c r="B90">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C90">
-        <v>1.000013528158894</v>
+        <v>0.9999997699394201</v>
       </c>
       <c r="D90">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E90">
-        <v>1.00732969438179</v>
+        <v>0.9932069090128168</v>
       </c>
       <c r="F90">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G90">
-        <v>0.9960735815163276</v>
+        <v>0.9926796602233949</v>
       </c>
       <c r="H90">
-        <v>-0.003926418483672367</v>
+        <v>-0.007320339776605067</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3316,25 +3316,25 @@
         <v>97</v>
       </c>
       <c r="B91">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C91">
-        <v>1.000013528158894</v>
+        <v>0.9999997699394201</v>
       </c>
       <c r="D91">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E91">
-        <v>1.006424906905152</v>
+        <v>0.990549545668499</v>
       </c>
       <c r="F91">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G91">
-        <v>0.9951789043243492</v>
+        <v>0.9900237075535233</v>
       </c>
       <c r="H91">
-        <v>-0.004821095675650811</v>
+        <v>-0.009976292446476687</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3342,25 +3342,25 @@
         <v>98</v>
       </c>
       <c r="B92">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C92">
-        <v>1.000013528158894</v>
+        <v>0.9999997699394201</v>
       </c>
       <c r="D92">
-        <v>0.9999949640162393</v>
+        <v>0.9999995902543377</v>
       </c>
       <c r="E92">
-        <v>1.002558640406644</v>
+        <v>1.012831300487764</v>
       </c>
       <c r="F92">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G92">
-        <v>0.9913515735322529</v>
+        <v>1.01229311647759</v>
       </c>
       <c r="H92">
-        <v>-0.008648426467747106</v>
+        <v>0.01229311647759013</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3368,25 +3368,25 @@
         <v>99</v>
       </c>
       <c r="B93">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C93">
-        <v>1.000013528158894</v>
+        <v>0.9999997699394201</v>
       </c>
       <c r="D93">
-        <v>0.9999949640162393</v>
+        <v>0.9999995902543377</v>
       </c>
       <c r="E93">
-        <v>1.011021918090082</v>
+        <v>0.9906401289889341</v>
       </c>
       <c r="F93">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G93">
-        <v>0.9997202447606147</v>
+        <v>0.9901137366104587</v>
       </c>
       <c r="H93">
-        <v>-0.000279755239385282</v>
+        <v>-0.00988626338954135</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3394,25 +3394,25 @@
         <v>100</v>
       </c>
       <c r="B94">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C94">
-        <v>1.000013528158894</v>
+        <v>0.9999997699394201</v>
       </c>
       <c r="D94">
-        <v>0.9999937396313585</v>
+        <v>0.9999997610421765</v>
       </c>
       <c r="E94">
-        <v>1.006593835484707</v>
+        <v>1.015528918698912</v>
       </c>
       <c r="F94">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G94">
-        <v>0.9953404426351352</v>
+        <v>1.014989474614325</v>
       </c>
       <c r="H94">
-        <v>-0.004659557364864786</v>
+        <v>0.01498947461432465</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3420,25 +3420,25 @@
         <v>101</v>
       </c>
       <c r="B95">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C95">
-        <v>1.000013528158894</v>
+        <v>0.9999997699394201</v>
       </c>
       <c r="D95">
-        <v>0.9999949640162393</v>
+        <v>0.9999995902543377</v>
       </c>
       <c r="E95">
-        <v>0.9995725657577582</v>
+        <v>1.011964636301954</v>
       </c>
       <c r="F95">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G95">
-        <v>0.9883988786149193</v>
+        <v>1.011426912807571</v>
       </c>
       <c r="H95">
-        <v>-0.01160112138508074</v>
+        <v>0.01142691280757102</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3446,25 +3446,25 @@
         <v>102</v>
       </c>
       <c r="B96">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C96">
-        <v>1.000013528158894</v>
+        <v>0.9999997699394201</v>
       </c>
       <c r="D96">
-        <v>0.9999948344867189</v>
+        <v>0.9999998010627617</v>
       </c>
       <c r="E96">
-        <v>1.0036033849198</v>
+        <v>0.997419189671447</v>
       </c>
       <c r="F96">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G96">
-        <v>0.9923845108614706</v>
+        <v>0.9968894052840529</v>
       </c>
       <c r="H96">
-        <v>-0.007615489138529385</v>
+        <v>-0.003110594715947101</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3472,25 +3472,25 @@
         <v>103</v>
       </c>
       <c r="B97">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C97">
-        <v>1.000013528158894</v>
+        <v>0.9999997699394201</v>
       </c>
       <c r="D97">
-        <v>0.9999932350101302</v>
+        <v>0.9999998658775334</v>
       </c>
       <c r="E97">
-        <v>0.9985230285181202</v>
+        <v>1.011084226144529</v>
       </c>
       <c r="F97">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G97">
-        <v>0.987359366428867</v>
+        <v>1.010547249000377</v>
       </c>
       <c r="H97">
-        <v>-0.01264063357113299</v>
+        <v>0.01054724900037662</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3498,25 +3498,25 @@
         <v>104</v>
       </c>
       <c r="B98">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C98">
-        <v>1.000013528158894</v>
+        <v>0.9999997699394201</v>
       </c>
       <c r="D98">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E98">
-        <v>1.006697023655359</v>
+        <v>0.9958514190636316</v>
       </c>
       <c r="F98">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G98">
-        <v>0.9954453248590681</v>
+        <v>0.9953228207841913</v>
       </c>
       <c r="H98">
-        <v>-0.004554675140931885</v>
+        <v>-0.00467717921580868</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3524,25 +3524,25 @@
         <v>105</v>
       </c>
       <c r="B99">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C99">
-        <v>1.000013528158894</v>
+        <v>0.9999997699394201</v>
       </c>
       <c r="D99">
-        <v>0.9999932350101302</v>
+        <v>0.9999998658775334</v>
       </c>
       <c r="E99">
-        <v>1.009380972148717</v>
+        <v>0.9942557939154182</v>
       </c>
       <c r="F99">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G99">
-        <v>0.9980959163507422</v>
+        <v>0.9937277541903701</v>
       </c>
       <c r="H99">
-        <v>-0.00190408364925776</v>
+        <v>-0.006272245809629928</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3550,25 +3550,25 @@
         <v>106</v>
       </c>
       <c r="B100">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C100">
-        <v>0.9999929257307976</v>
+        <v>0.9999998495222479</v>
       </c>
       <c r="D100">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E100">
-        <v>1.007824792986363</v>
+        <v>1.000142752003555</v>
       </c>
       <c r="F100">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G100">
-        <v>0.9965399579965241</v>
+        <v>0.9996119554350562</v>
       </c>
       <c r="H100">
-        <v>-0.003460042003475938</v>
+        <v>-0.0003880445649437902</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3576,25 +3576,25 @@
         <v>107</v>
       </c>
       <c r="B101">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C101">
-        <v>0.9999929257307976</v>
+        <v>0.9999998495222479</v>
       </c>
       <c r="D101">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E101">
-        <v>1.009521292253981</v>
+        <v>0.9905486400686361</v>
       </c>
       <c r="F101">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G101">
-        <v>0.9982174611901932</v>
+        <v>0.9900229352949664</v>
       </c>
       <c r="H101">
-        <v>-0.001782538809806833</v>
+        <v>-0.009977064705033567</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3602,25 +3602,25 @@
         <v>108</v>
       </c>
       <c r="B102">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C102">
-        <v>0.9999929257307976</v>
+        <v>0.9999998495222479</v>
       </c>
       <c r="D102">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E102">
-        <v>1.002292727287081</v>
+        <v>0.9832225452310643</v>
       </c>
       <c r="F102">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G102">
-        <v>0.9910693708331491</v>
+        <v>0.9827003113302385</v>
       </c>
       <c r="H102">
-        <v>-0.008930629166850945</v>
+        <v>-0.0172996886697615</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3628,25 +3628,25 @@
         <v>109</v>
       </c>
       <c r="B103">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C103">
-        <v>0.9999929257307976</v>
+        <v>0.9999998495222479</v>
       </c>
       <c r="D103">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E103">
-        <v>0.9966351610204539</v>
+        <v>1.003488498535636</v>
       </c>
       <c r="F103">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G103">
-        <v>0.9854756187910345</v>
+        <v>1.002955926309838</v>
       </c>
       <c r="H103">
-        <v>-0.01452438120896549</v>
+        <v>0.002955926309837764</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3654,25 +3654,25 @@
         <v>110</v>
       </c>
       <c r="B104">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C104">
-        <v>0.9999929257307976</v>
+        <v>0.9999998495222479</v>
       </c>
       <c r="D104">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E104">
-        <v>1.006692952945827</v>
+        <v>0.9934114380132779</v>
       </c>
       <c r="F104">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G104">
-        <v>0.9954234468773858</v>
+        <v>0.9928841596651675</v>
       </c>
       <c r="H104">
-        <v>-0.00457655312261418</v>
+        <v>-0.007115840334832479</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3680,25 +3680,25 @@
         <v>111</v>
       </c>
       <c r="B105">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C105">
-        <v>0.9999929257307976</v>
+        <v>0.9999998495222479</v>
       </c>
       <c r="D105">
-        <v>0.9999948344867189</v>
+        <v>0.9999998010627617</v>
       </c>
       <c r="E105">
-        <v>1.00734918523432</v>
+        <v>0.999897114495594</v>
       </c>
       <c r="F105">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G105">
-        <v>0.996067916834941</v>
+        <v>0.9993660934779404</v>
       </c>
       <c r="H105">
-        <v>-0.003932083165058997</v>
+        <v>-0.0006339065220596352</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3706,25 +3706,25 @@
         <v>112</v>
       </c>
       <c r="B106">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C106">
-        <v>0.9999929257307976</v>
+        <v>0.9999998495222479</v>
       </c>
       <c r="D106">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E106">
-        <v>1.017817849250162</v>
+        <v>0.9882045451135384</v>
       </c>
       <c r="F106">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G106">
-        <v>1.006420647398534</v>
+        <v>0.9876796650475639</v>
       </c>
       <c r="H106">
-        <v>0.006420647398534429</v>
+        <v>-0.01232033495243612</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3732,25 +3732,25 @@
         <v>113</v>
       </c>
       <c r="B107">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C107">
-        <v>0.9999929257307976</v>
+        <v>0.9999998495222479</v>
       </c>
       <c r="D107">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E107">
-        <v>1.001967670502792</v>
+        <v>0.9965330613940042</v>
       </c>
       <c r="F107">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G107">
-        <v>0.9907484189965139</v>
+        <v>0.996004180563419</v>
       </c>
       <c r="H107">
-        <v>-0.009251581003486109</v>
+        <v>-0.003995819436581005</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3758,25 +3758,25 @@
         <v>114</v>
       </c>
       <c r="B108">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C108">
-        <v>0.9999929257307976</v>
+        <v>0.9999998495222479</v>
       </c>
       <c r="D108">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E108">
-        <v>0.9943914038632348</v>
+        <v>1.00147343883688</v>
       </c>
       <c r="F108">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G108">
-        <v>0.9832596084856569</v>
+        <v>1.0009418813771</v>
       </c>
       <c r="H108">
-        <v>-0.01674039151434314</v>
+        <v>0.0009418813771000512</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3784,25 +3784,25 @@
         <v>115</v>
       </c>
       <c r="B109">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C109">
-        <v>0.9999929257307976</v>
+        <v>0.9999998495222479</v>
       </c>
       <c r="D109">
-        <v>0.9999948344867189</v>
+        <v>0.9999998010627617</v>
       </c>
       <c r="E109">
-        <v>1.003563298710624</v>
+        <v>0.9945973683729759</v>
       </c>
       <c r="F109">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G109">
-        <v>0.9923244283224103</v>
+        <v>0.9940691619214795</v>
       </c>
       <c r="H109">
-        <v>-0.007675571677589699</v>
+        <v>-0.005930838078520462</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3810,25 +3810,25 @@
         <v>116</v>
       </c>
       <c r="B110">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C110">
-        <v>0.9999929257307976</v>
+        <v>0.9999998495222479</v>
       </c>
       <c r="D110">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E110">
-        <v>1.000446991168288</v>
+        <v>0.9891648478388861</v>
       </c>
       <c r="F110">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G110">
-        <v>0.9892474060265294</v>
+        <v>0.9886398234763518</v>
       </c>
       <c r="H110">
-        <v>-0.01075259397347061</v>
+        <v>-0.01136017652364818</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3836,25 +3836,25 @@
         <v>117</v>
       </c>
       <c r="B111">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C111">
-        <v>0.9999929257307976</v>
+        <v>0.9999998495222479</v>
       </c>
       <c r="D111">
-        <v>0.9999948344867189</v>
+        <v>0.9999998010627617</v>
       </c>
       <c r="E111">
-        <v>1.009635891275274</v>
+        <v>1.011651195938817</v>
       </c>
       <c r="F111">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G111">
-        <v>0.9983290141346784</v>
+        <v>1.011113932614631</v>
       </c>
       <c r="H111">
-        <v>-0.00167098586532155</v>
+        <v>0.01111393261463101</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3862,25 +3862,25 @@
         <v>118</v>
       </c>
       <c r="B112">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C112">
-        <v>0.9999929257307976</v>
+        <v>0.9999998495222479</v>
       </c>
       <c r="D112">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E112">
-        <v>1.009062816832178</v>
+        <v>0.9926361845021157</v>
       </c>
       <c r="F112">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G112">
-        <v>0.997766781129879</v>
+        <v>0.9921093176394938</v>
       </c>
       <c r="H112">
-        <v>-0.002233218870120957</v>
+        <v>-0.007890682360506163</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3888,25 +3888,25 @@
         <v>119</v>
       </c>
       <c r="B113">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C113">
-        <v>0.9999929257307976</v>
+        <v>0.9999998495222479</v>
       </c>
       <c r="D113">
-        <v>0.9999928110954979</v>
+        <v>0.9999996173226297</v>
       </c>
       <c r="E113">
-        <v>1.001404185996791</v>
+        <v>0.9934252810211619</v>
       </c>
       <c r="F113">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G113">
-        <v>0.9901874918854906</v>
+        <v>0.9928975146015366</v>
       </c>
       <c r="H113">
-        <v>-0.0098125081145094</v>
+        <v>-0.007102485398463365</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3914,25 +3914,25 @@
         <v>120</v>
       </c>
       <c r="B114">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C114">
-        <v>0.9999929257307976</v>
+        <v>0.9999998495222479</v>
       </c>
       <c r="D114">
-        <v>0.9999948344867189</v>
+        <v>0.9999998010627617</v>
       </c>
       <c r="E114">
-        <v>1.00101348125477</v>
+        <v>1.001175927863754</v>
       </c>
       <c r="F114">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G114">
-        <v>0.9898031661833324</v>
+        <v>1.000644227699449</v>
       </c>
       <c r="H114">
-        <v>-0.01019683381666758</v>
+        <v>0.0006442276994493845</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3940,25 +3940,25 @@
         <v>121</v>
       </c>
       <c r="B115">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C115">
-        <v>0.9999929257307976</v>
+        <v>0.9999998495222479</v>
       </c>
       <c r="D115">
-        <v>0.9999932350101302</v>
+        <v>0.9999998658775334</v>
       </c>
       <c r="E115">
-        <v>1.010814236080063</v>
+        <v>0.9910884405677858</v>
       </c>
       <c r="F115">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G115">
-        <v>0.9994925640213158</v>
+        <v>0.9905621618255003</v>
       </c>
       <c r="H115">
-        <v>-0.0005074359786841898</v>
+        <v>-0.009437838174499724</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3966,25 +3966,25 @@
         <v>122</v>
       </c>
       <c r="B116">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C116">
-        <v>0.9999929257307976</v>
+        <v>0.9999998495222479</v>
       </c>
       <c r="D116">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E116">
-        <v>1.000424147191735</v>
+        <v>0.9894415360930897</v>
       </c>
       <c r="F116">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G116">
-        <v>0.9892217145057819</v>
+        <v>0.9889159990053376</v>
       </c>
       <c r="H116">
-        <v>-0.01077828549421811</v>
+        <v>-0.01108400099466245</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3992,25 +3992,25 @@
         <v>123</v>
       </c>
       <c r="B117">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C117">
-        <v>0.9999929257307976</v>
+        <v>0.9999998495222479</v>
       </c>
       <c r="D117">
-        <v>0.9999932350101302</v>
+        <v>0.9999998658775334</v>
       </c>
       <c r="E117">
-        <v>1.009979672155912</v>
+        <v>1.000238531507821</v>
       </c>
       <c r="F117">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G117">
-        <v>0.9986673476693738</v>
+        <v>0.9997073939677179</v>
       </c>
       <c r="H117">
-        <v>-0.001332652330626183</v>
+        <v>-0.0002926060322820945</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4018,25 +4018,25 @@
         <v>124</v>
       </c>
       <c r="B118">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C118">
-        <v>0.9999929257307976</v>
+        <v>0.9999998495222479</v>
       </c>
       <c r="D118">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E118">
-        <v>1.006076431977968</v>
+        <v>0.9949352343947687</v>
       </c>
       <c r="F118">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G118">
-        <v>0.9948111737693511</v>
+        <v>0.994407201564218</v>
       </c>
       <c r="H118">
-        <v>-0.005188826230648869</v>
+        <v>-0.005592798435781976</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4044,25 +4044,25 @@
         <v>125</v>
       </c>
       <c r="B119">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C119">
-        <v>0.9999929257307976</v>
+        <v>0.9999998495222479</v>
       </c>
       <c r="D119">
-        <v>0.9999928110954979</v>
+        <v>0.9999996173226297</v>
       </c>
       <c r="E119">
-        <v>1.007694924232978</v>
+        <v>1.003907680350006</v>
       </c>
       <c r="F119">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G119">
-        <v>0.9964077677773844</v>
+        <v>1.003374345058248</v>
       </c>
       <c r="H119">
-        <v>-0.003592232222615621</v>
+        <v>0.003374345058248185</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4070,25 +4070,25 @@
         <v>126</v>
       </c>
       <c r="B120">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C120">
-        <v>0.9999979486263794</v>
+        <v>0.9999986940552855</v>
       </c>
       <c r="D120">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E120">
-        <v>0.990114322410092</v>
+        <v>1.003522795490628</v>
       </c>
       <c r="F120">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G120">
-        <v>0.9790322534629662</v>
+        <v>1.002988620288305</v>
       </c>
       <c r="H120">
-        <v>-0.02096774653703382</v>
+        <v>0.002988620288304933</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4096,25 +4096,25 @@
         <v>127</v>
       </c>
       <c r="B121">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C121">
-        <v>0.9999979486263794</v>
+        <v>0.9999986940552855</v>
       </c>
       <c r="D121">
-        <v>0.9999932350101302</v>
+        <v>0.9999998658775334</v>
       </c>
       <c r="E121">
-        <v>1.007000991481081</v>
+        <v>1.001514978499464</v>
       </c>
       <c r="F121">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G121">
-        <v>0.9957270312897191</v>
+        <v>1.000982006548976</v>
       </c>
       <c r="H121">
-        <v>-0.004272968710280933</v>
+        <v>0.0009820065489756225</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4122,25 +4122,25 @@
         <v>128</v>
       </c>
       <c r="B122">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C122">
-        <v>0.9999979486263794</v>
+        <v>0.9999986940552855</v>
       </c>
       <c r="D122">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E122">
-        <v>0.993366271713783</v>
+        <v>1.002434981569707</v>
       </c>
       <c r="F122">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G122">
-        <v>0.9822482656946363</v>
+        <v>1.001901810801329</v>
       </c>
       <c r="H122">
-        <v>-0.0177517343053637</v>
+        <v>0.00190181080132934</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4148,25 +4148,25 @@
         <v>129</v>
       </c>
       <c r="B123">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C123">
-        <v>0.9999979486263794</v>
+        <v>0.9999986940552855</v>
       </c>
       <c r="D123">
-        <v>0.9999928110954979</v>
+        <v>0.9999996173226297</v>
       </c>
       <c r="E123">
-        <v>1.0038081808448</v>
+        <v>0.9940205212958221</v>
       </c>
       <c r="F123">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G123">
-        <v>0.9925695452526612</v>
+        <v>0.993491290701402</v>
       </c>
       <c r="H123">
-        <v>-0.007430454747338833</v>
+        <v>-0.006508709298598037</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4174,25 +4174,25 @@
         <v>130</v>
       </c>
       <c r="B124">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C124">
-        <v>0.9999979486263794</v>
+        <v>0.9999986940552855</v>
       </c>
       <c r="D124">
-        <v>0.9999948344867189</v>
+        <v>0.9999998010627617</v>
       </c>
       <c r="E124">
-        <v>0.9938251321804366</v>
+        <v>0.9967687108626542</v>
       </c>
       <c r="F124">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G124">
-        <v>0.9827002551905222</v>
+        <v>0.9962382001421871</v>
       </c>
       <c r="H124">
-        <v>-0.01729974480947782</v>
+        <v>-0.003761799857812886</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4200,25 +4200,25 @@
         <v>131</v>
       </c>
       <c r="B125">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C125">
-        <v>0.9999979486263794</v>
+        <v>0.9999986940552855</v>
       </c>
       <c r="D125">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E125">
-        <v>1.000748916762297</v>
+        <v>1.010291934915593</v>
       </c>
       <c r="F125">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G125">
-        <v>0.9895482823165329</v>
+        <v>1.009754585224962</v>
       </c>
       <c r="H125">
-        <v>-0.01045171768346709</v>
+        <v>0.009754585224961643</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4226,25 +4226,25 @@
         <v>132</v>
       </c>
       <c r="B126">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C126">
-        <v>0.9999979486263794</v>
+        <v>0.9999986940552855</v>
       </c>
       <c r="D126">
-        <v>0.9999948344867189</v>
+        <v>0.9999998010627617</v>
       </c>
       <c r="E126">
-        <v>1.001425068890649</v>
+        <v>0.9895133745147892</v>
       </c>
       <c r="F126">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G126">
-        <v>0.9902151182209754</v>
+        <v>0.988986725305695</v>
       </c>
       <c r="H126">
-        <v>-0.00978488177902459</v>
+        <v>-0.01101327469430502</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4252,25 +4252,25 @@
         <v>133</v>
       </c>
       <c r="B127">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C127">
-        <v>0.9999979486263794</v>
+        <v>0.9999986940552855</v>
       </c>
       <c r="D127">
-        <v>0.9999928110954979</v>
+        <v>0.9999996173226297</v>
       </c>
       <c r="E127">
-        <v>1.005912315031347</v>
+        <v>1.003263078923076</v>
       </c>
       <c r="F127">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G127">
-        <v>0.9946501215545335</v>
+        <v>1.002728927460161</v>
       </c>
       <c r="H127">
-        <v>-0.005349878445466527</v>
+        <v>0.002728927460160513</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4278,25 +4278,25 @@
         <v>134</v>
       </c>
       <c r="B128">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C128">
-        <v>0.9999979486263794</v>
+        <v>0.9999986940552855</v>
       </c>
       <c r="D128">
-        <v>0.9999928110954979</v>
+        <v>0.9999996173226297</v>
       </c>
       <c r="E128">
-        <v>1.008399490673831</v>
+        <v>1.014625827910137</v>
       </c>
       <c r="F128">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G128">
-        <v>0.9971094507805084</v>
+        <v>1.014085626758838</v>
       </c>
       <c r="H128">
-        <v>-0.002890549219491612</v>
+        <v>0.01408562675883807</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4304,25 +4304,25 @@
         <v>135</v>
       </c>
       <c r="B129">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C129">
-        <v>0.9999979486263794</v>
+        <v>0.9999986940552855</v>
       </c>
       <c r="D129">
-        <v>0.9999949640162393</v>
+        <v>0.9999995902543377</v>
       </c>
       <c r="E129">
-        <v>0.9961764461653446</v>
+        <v>0.997125614186212</v>
       </c>
       <c r="F129">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G129">
-        <v>0.9850253761608333</v>
+        <v>0.9965947034202618</v>
       </c>
       <c r="H129">
-        <v>-0.0149746238391667</v>
+        <v>-0.003405296579738204</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4330,25 +4330,25 @@
         <v>136</v>
       </c>
       <c r="B130">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C130">
-        <v>0.999997991351639</v>
+        <v>0.9999991667820164</v>
       </c>
       <c r="D130">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E130">
-        <v>0.9951519941367829</v>
+        <v>1.006808946209086</v>
       </c>
       <c r="F130">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G130">
-        <v>0.9840166689349389</v>
+        <v>1.006273869769048</v>
       </c>
       <c r="H130">
-        <v>-0.01598333106506111</v>
+        <v>0.00627386976904809</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4356,25 +4356,25 @@
         <v>137</v>
       </c>
       <c r="B131">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C131">
-        <v>0.999997991351639</v>
+        <v>0.9999991667820164</v>
       </c>
       <c r="D131">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E131">
-        <v>0.9980267544822764</v>
+        <v>0.9938800003214433</v>
       </c>
       <c r="F131">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G131">
-        <v>0.9868561660896418</v>
+        <v>0.9933514275633284</v>
       </c>
       <c r="H131">
-        <v>-0.01314383391035823</v>
+        <v>-0.006648572436671607</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4382,25 +4382,25 @@
         <v>138</v>
       </c>
       <c r="B132">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C132">
-        <v>1.000007783117014</v>
+        <v>0.9999991726030797</v>
       </c>
       <c r="D132">
-        <v>0.9999948344867189</v>
+        <v>0.9999998010627617</v>
       </c>
       <c r="E132">
-        <v>0.9910410381798868</v>
+        <v>1.020260205191885</v>
       </c>
       <c r="F132">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G132">
-        <v>0.9799569636364742</v>
+        <v>1.019717679565434</v>
       </c>
       <c r="H132">
-        <v>-0.02004303636352578</v>
+        <v>0.01971767956543369</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4408,25 +4408,25 @@
         <v>139</v>
       </c>
       <c r="B133">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C133">
-        <v>1.000008919348192</v>
+        <v>0.9999996298890974</v>
       </c>
       <c r="D133">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E133">
-        <v>1.013040710370237</v>
+        <v>0.9883397800766451</v>
       </c>
       <c r="F133">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G133">
-        <v>1.001716164737652</v>
+        <v>0.9878149766827823</v>
       </c>
       <c r="H133">
-        <v>0.001716164737652459</v>
+        <v>-0.01218502331721771</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4434,25 +4434,25 @@
         <v>140</v>
       </c>
       <c r="B134">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C134">
-        <v>1.000007783117014</v>
+        <v>0.9999991726030797</v>
       </c>
       <c r="D134">
-        <v>0.9999932350101302</v>
+        <v>0.9999998658775334</v>
       </c>
       <c r="E134">
-        <v>0.9990188466439041</v>
+        <v>1.011335307255173</v>
       </c>
       <c r="F134">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G134">
-        <v>0.9878439660605056</v>
+        <v>1.010797592977614</v>
       </c>
       <c r="H134">
-        <v>-0.01215603393949438</v>
+        <v>0.01079759297761362</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4460,25 +4460,25 @@
         <v>141</v>
       </c>
       <c r="B135">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C135">
-        <v>1.000007783117014</v>
+        <v>0.9999991726030797</v>
       </c>
       <c r="D135">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E135">
-        <v>1.007233849891268</v>
+        <v>0.9989592048595374</v>
       </c>
       <c r="F135">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G135">
-        <v>0.9959699617068734</v>
+        <v>0.9984279366524722</v>
       </c>
       <c r="H135">
-        <v>-0.004030038293126648</v>
+        <v>-0.001572063347527797</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4486,25 +4486,25 @@
         <v>142</v>
       </c>
       <c r="B136">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C136">
-        <v>1.000007783117014</v>
+        <v>0.9999991726030797</v>
       </c>
       <c r="D136">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E136">
-        <v>0.9978225648527934</v>
+        <v>1.00654933479362</v>
       </c>
       <c r="F136">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G136">
-        <v>0.986667018243555</v>
+        <v>1.006014402182165</v>
       </c>
       <c r="H136">
-        <v>-0.01333298175644504</v>
+        <v>0.006014402182164869</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4512,25 +4512,25 @@
         <v>143</v>
       </c>
       <c r="B137">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C137">
-        <v>0.999997991351639</v>
+        <v>0.9999991667820164</v>
       </c>
       <c r="D137">
-        <v>0.9999932350101302</v>
+        <v>0.9999998658775334</v>
       </c>
       <c r="E137">
-        <v>0.9995935051946188</v>
+        <v>1.011330516186213</v>
       </c>
       <c r="F137">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G137">
-        <v>0.9884025183386439</v>
+        <v>1.010792798572111</v>
       </c>
       <c r="H137">
-        <v>-0.0115974816613561</v>
+        <v>0.0107927985721108</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4538,25 +4538,25 @@
         <v>144</v>
       </c>
       <c r="B138">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C138">
-        <v>0.999997991351639</v>
+        <v>0.9999991667820164</v>
       </c>
       <c r="D138">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E138">
-        <v>0.9894381196925015</v>
+        <v>1.002953739209463</v>
       </c>
       <c r="F138">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G138">
-        <v>0.9783667303019451</v>
+        <v>1.00242071164915</v>
       </c>
       <c r="H138">
-        <v>-0.0216332696980549</v>
+        <v>0.002420711649150142</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4564,25 +4564,25 @@
         <v>145</v>
       </c>
       <c r="B139">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C139">
-        <v>1.000023612925549</v>
+        <v>1.000001330741863</v>
       </c>
       <c r="D139">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E139">
-        <v>1.002902813015837</v>
+        <v>0.9966334870458791</v>
       </c>
       <c r="F139">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G139">
-        <v>0.9917061679385631</v>
+        <v>0.9961059739631659</v>
       </c>
       <c r="H139">
-        <v>-0.008293832061436857</v>
+        <v>-0.003894026036834086</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4590,25 +4590,25 @@
         <v>146</v>
       </c>
       <c r="B140">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C140">
-        <v>1.000007783117014</v>
+        <v>0.9999991726030797</v>
       </c>
       <c r="D140">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E140">
-        <v>0.9953371865711689</v>
+        <v>0.9990242717845905</v>
       </c>
       <c r="F140">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G140">
-        <v>0.9842063386786786</v>
+        <v>0.9984929689735209</v>
       </c>
       <c r="H140">
-        <v>-0.01579366132132143</v>
+        <v>-0.001507031026479089</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4616,25 +4616,25 @@
         <v>147</v>
       </c>
       <c r="B141">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C141">
-        <v>1.000007783117014</v>
+        <v>0.9999991726030797</v>
       </c>
       <c r="D141">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E141">
-        <v>0.9990697718602631</v>
+        <v>0.9956733187168123</v>
       </c>
       <c r="F141">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G141">
-        <v>0.9878971824959789</v>
+        <v>0.9951437980153821</v>
       </c>
       <c r="H141">
-        <v>-0.01210281750402109</v>
+        <v>-0.004856201984617892</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4642,25 +4642,25 @@
         <v>148</v>
       </c>
       <c r="B142">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C142">
-        <v>1.000008919348192</v>
+        <v>0.9999996298890974</v>
       </c>
       <c r="D142">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E142">
-        <v>1.004643769699453</v>
+        <v>1.001052123842722</v>
       </c>
       <c r="F142">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G142">
-        <v>0.9934099750946966</v>
+        <v>1.000520200099941</v>
       </c>
       <c r="H142">
-        <v>-0.00659002490530336</v>
+        <v>0.0005202000999406931</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4668,25 +4668,25 @@
         <v>149</v>
       </c>
       <c r="B143">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C143">
-        <v>0.999997991351639</v>
+        <v>0.9999991667820164</v>
       </c>
       <c r="D143">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E143">
-        <v>0.9935765494004942</v>
+        <v>0.9975967003054079</v>
       </c>
       <c r="F143">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G143">
-        <v>0.9824557707038504</v>
+        <v>0.9970661509038743</v>
       </c>
       <c r="H143">
-        <v>-0.01754422929614963</v>
+        <v>-0.002933849096125707</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4694,25 +4694,25 @@
         <v>150</v>
       </c>
       <c r="B144">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C144">
-        <v>1.000023612925549</v>
+        <v>1.000001330741863</v>
       </c>
       <c r="D144">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E144">
-        <v>0.9976864287336548</v>
+        <v>0.9877785410937677</v>
       </c>
       <c r="F144">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G144">
-        <v>0.986545388824981</v>
+        <v>0.9872557688099255</v>
       </c>
       <c r="H144">
-        <v>-0.013454611175019</v>
+        <v>-0.01274423119007451</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4720,25 +4720,25 @@
         <v>151</v>
       </c>
       <c r="B145">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C145">
-        <v>1.000008919348192</v>
+        <v>0.9999996298890974</v>
       </c>
       <c r="D145">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E145">
-        <v>1.002935132940739</v>
+        <v>0.9909681570516937</v>
       </c>
       <c r="F145">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G145">
-        <v>0.9917235551993481</v>
+        <v>0.9904419580030321</v>
       </c>
       <c r="H145">
-        <v>-0.008276444800651928</v>
+        <v>-0.009558041996967859</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4746,25 +4746,25 @@
         <v>152</v>
       </c>
       <c r="B146">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C146">
-        <v>1.000008919348192</v>
+        <v>0.9999996298890974</v>
       </c>
       <c r="D146">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E146">
-        <v>1.007782429300007</v>
+        <v>0.9949796891477597</v>
       </c>
       <c r="F146">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G146">
-        <v>0.9965135386160726</v>
+        <v>0.9944509920823054</v>
       </c>
       <c r="H146">
-        <v>-0.003486461383927386</v>
+        <v>-0.005549007917694637</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4772,25 +4772,25 @@
         <v>153</v>
       </c>
       <c r="B147">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C147">
-        <v>1.000007783117014</v>
+        <v>0.9999991726030797</v>
       </c>
       <c r="D147">
-        <v>0.9999932350101302</v>
+        <v>0.9999998658775334</v>
       </c>
       <c r="E147">
-        <v>0.9977013411513399</v>
+        <v>1.004519664208397</v>
       </c>
       <c r="F147">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G147">
-        <v>0.9865411979941641</v>
+        <v>1.003985573722621</v>
       </c>
       <c r="H147">
-        <v>-0.01345880200583593</v>
+        <v>0.003985573722621316</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4798,25 +4798,25 @@
         <v>154</v>
       </c>
       <c r="B148">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C148">
-        <v>0.999997991351639</v>
+        <v>0.9999991667820164</v>
       </c>
       <c r="D148">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E148">
-        <v>0.9921437769492274</v>
+        <v>0.9961624354030535</v>
       </c>
       <c r="F148">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G148">
-        <v>0.981039034807958</v>
+        <v>0.9956326487830982</v>
       </c>
       <c r="H148">
-        <v>-0.01896096519204205</v>
+        <v>-0.004367351216901794</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4824,25 +4824,25 @@
         <v>155</v>
       </c>
       <c r="B149">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C149">
-        <v>1.000008919348192</v>
+        <v>0.9999996298890974</v>
       </c>
       <c r="D149">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E149">
-        <v>1.002630863428961</v>
+        <v>0.996875578758299</v>
       </c>
       <c r="F149">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G149">
-        <v>0.9914226870454181</v>
+        <v>0.9963462428987723</v>
       </c>
       <c r="H149">
-        <v>-0.008577312954581862</v>
+        <v>-0.003653757101227728</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4850,25 +4850,25 @@
         <v>156</v>
       </c>
       <c r="B150">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C150">
-        <v>1.000007783117014</v>
+        <v>0.9999991726030797</v>
       </c>
       <c r="D150">
-        <v>0.9999932350101302</v>
+        <v>0.9999998658775334</v>
       </c>
       <c r="E150">
-        <v>1.001164287194519</v>
+        <v>0.9990858567897158</v>
       </c>
       <c r="F150">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G150">
-        <v>0.9899654080228731</v>
+        <v>0.9985546553910805</v>
       </c>
       <c r="H150">
-        <v>-0.01003459197712686</v>
+        <v>-0.001445344608919541</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4876,25 +4876,25 @@
         <v>157</v>
       </c>
       <c r="B151">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C151">
-        <v>1.000008919348192</v>
+        <v>0.9999996298890974</v>
       </c>
       <c r="D151">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E151">
-        <v>0.9966640173155865</v>
+        <v>1.002774357571959</v>
       </c>
       <c r="F151">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G151">
-        <v>0.9855194512533055</v>
+        <v>1.002241518695001</v>
       </c>
       <c r="H151">
-        <v>-0.01448054874669447</v>
+        <v>0.00224151869500111</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4902,25 +4902,25 @@
         <v>158</v>
       </c>
       <c r="B152">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C152">
-        <v>1.000007783117014</v>
+        <v>0.9999991726030797</v>
       </c>
       <c r="D152">
-        <v>0.9999932350101302</v>
+        <v>0.9999998658775334</v>
       </c>
       <c r="E152">
-        <v>1.003559889422359</v>
+        <v>1.017564576599431</v>
       </c>
       <c r="F152">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G152">
-        <v>0.9923342133900616</v>
+        <v>1.017023550297619</v>
       </c>
       <c r="H152">
-        <v>-0.007665786609938441</v>
+        <v>0.01702355029761948</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4928,25 +4928,25 @@
         <v>159</v>
       </c>
       <c r="B153">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C153">
-        <v>1.000007783117014</v>
+        <v>0.9999991726030797</v>
       </c>
       <c r="D153">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E153">
-        <v>1.005430290585657</v>
+        <v>0.9973658935261054</v>
       </c>
       <c r="F153">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G153">
-        <v>0.9941896904388533</v>
+        <v>0.9968358414724625</v>
       </c>
       <c r="H153">
-        <v>-0.005810309561146698</v>
+        <v>-0.003164158527537486</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4954,25 +4954,25 @@
         <v>160</v>
       </c>
       <c r="B154">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C154">
-        <v>1.000008919348192</v>
+        <v>0.9999996298890974</v>
       </c>
       <c r="D154">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E154">
-        <v>1.006492913888637</v>
+        <v>0.994065802101934</v>
       </c>
       <c r="F154">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G154">
-        <v>0.9952415645445029</v>
+        <v>0.9935379582195136</v>
       </c>
       <c r="H154">
-        <v>-0.004758435455497145</v>
+        <v>-0.006462041780486372</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4980,25 +4980,25 @@
         <v>161</v>
       </c>
       <c r="B155">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C155">
-        <v>1.000008919348192</v>
+        <v>0.9999996298890974</v>
       </c>
       <c r="D155">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E155">
-        <v>0.997218538641049</v>
+        <v>0.9924368767110175</v>
       </c>
       <c r="F155">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G155">
-        <v>0.9860677719941806</v>
+        <v>0.9919095308062834</v>
       </c>
       <c r="H155">
-        <v>-0.01393222800581939</v>
+        <v>-0.008090469193716587</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5006,25 +5006,25 @@
         <v>162</v>
       </c>
       <c r="B156">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C156">
-        <v>1.000008919348192</v>
+        <v>0.9999996298890974</v>
       </c>
       <c r="D156">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E156">
-        <v>1.005530376125488</v>
+        <v>0.9961387510206505</v>
       </c>
       <c r="F156">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G156">
-        <v>0.9942866676041913</v>
+        <v>0.9956094380706535</v>
       </c>
       <c r="H156">
-        <v>-0.005713332395808735</v>
+        <v>-0.004390561929346504</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5032,25 +5032,25 @@
         <v>163</v>
       </c>
       <c r="B157">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C157">
-        <v>1.000023612925549</v>
+        <v>1.000001330741863</v>
       </c>
       <c r="D157">
-        <v>0.9999948344867189</v>
+        <v>0.9999998010627617</v>
       </c>
       <c r="E157">
-        <v>1.000319051553466</v>
+        <v>0.9881432413592593</v>
       </c>
       <c r="F157">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G157">
-        <v>0.9891468668018455</v>
+        <v>0.9876199254175706</v>
       </c>
       <c r="H157">
-        <v>-0.01085313319815451</v>
+        <v>-0.0123800745824294</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5058,25 +5058,25 @@
         <v>164</v>
       </c>
       <c r="B158">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C158">
-        <v>1.000023612925549</v>
+        <v>1.000001330741863</v>
       </c>
       <c r="D158">
-        <v>0.9999932350101302</v>
+        <v>0.9999998658775334</v>
       </c>
       <c r="E158">
-        <v>1.015645371129493</v>
+        <v>0.9859765956841463</v>
       </c>
       <c r="F158">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G158">
-        <v>1.004300406151438</v>
+        <v>0.9854544910596768</v>
       </c>
       <c r="H158">
-        <v>0.004300406151438452</v>
+        <v>-0.01454550894032325</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5084,25 +5084,25 @@
         <v>165</v>
       </c>
       <c r="B159">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C159">
-        <v>1.000023612925549</v>
+        <v>1.000001330741863</v>
       </c>
       <c r="D159">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E159">
-        <v>1.002034240914593</v>
+        <v>1.001320937495607</v>
       </c>
       <c r="F159">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G159">
-        <v>0.9908441844196696</v>
+        <v>1.000790573109895</v>
       </c>
       <c r="H159">
-        <v>-0.009155815580330406</v>
+        <v>0.0007905731098947211</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5110,25 +5110,25 @@
         <v>166</v>
       </c>
       <c r="B160">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C160">
-        <v>1.000023612925549</v>
+        <v>1.000001330741863</v>
       </c>
       <c r="D160">
-        <v>0.9999928110954979</v>
+        <v>0.9999996173226297</v>
       </c>
       <c r="E160">
-        <v>0.9956001014465171</v>
+        <v>0.9960048403611471</v>
       </c>
       <c r="F160">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G160">
-        <v>0.9844786288622434</v>
+        <v>0.9954771780449926</v>
       </c>
       <c r="H160">
-        <v>-0.01552137113775665</v>
+        <v>-0.004522821955007417</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5136,25 +5136,25 @@
         <v>167</v>
       </c>
       <c r="B161">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C161">
-        <v>1.000023612925549</v>
+        <v>1.000001330741863</v>
       </c>
       <c r="D161">
-        <v>0.9999949640162393</v>
+        <v>0.9999995902543377</v>
       </c>
       <c r="E161">
-        <v>0.9925588646208081</v>
+        <v>0.9965030927635542</v>
       </c>
       <c r="F161">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G161">
-        <v>0.9814734775893491</v>
+        <v>0.9959751395244494</v>
       </c>
       <c r="H161">
-        <v>-0.01852652241065089</v>
+        <v>-0.004024860475550618</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5162,25 +5162,25 @@
         <v>168</v>
       </c>
       <c r="B162">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C162">
-        <v>1.000023612925549</v>
+        <v>1.000001330741863</v>
       </c>
       <c r="D162">
-        <v>0.9999949640162393</v>
+        <v>0.9999995902543377</v>
       </c>
       <c r="E162">
-        <v>1.002960787483038</v>
+        <v>1.009965759629595</v>
       </c>
       <c r="F162">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G162">
-        <v>0.9917592266457628</v>
+        <v>1.009430673789869</v>
       </c>
       <c r="H162">
-        <v>-0.00824077335423723</v>
+        <v>0.00943067378986906</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5188,25 +5188,25 @@
         <v>169</v>
       </c>
       <c r="B163">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C163">
-        <v>1.000023612925549</v>
+        <v>1.000001330741863</v>
       </c>
       <c r="D163">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E163">
-        <v>0.9999283966490317</v>
+        <v>1.007632708211895</v>
       </c>
       <c r="F163">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G163">
-        <v>0.9887623209642865</v>
+        <v>1.007099428301236</v>
       </c>
       <c r="H163">
-        <v>-0.01123767903571349</v>
+        <v>0.007099428301235555</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5214,25 +5214,25 @@
         <v>170</v>
       </c>
       <c r="B164">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C164">
-        <v>1.000023612925549</v>
+        <v>1.000001330741863</v>
       </c>
       <c r="D164">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E164">
-        <v>0.9957433953135304</v>
+        <v>1.003628643726842</v>
       </c>
       <c r="F164">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G164">
-        <v>0.9846235908267743</v>
+        <v>1.003097057030528</v>
       </c>
       <c r="H164">
-        <v>-0.01537640917322569</v>
+        <v>0.003097057030527983</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5240,25 +5240,25 @@
         <v>171</v>
       </c>
       <c r="B165">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C165">
-        <v>1.000023612925549</v>
+        <v>1.000001330741863</v>
       </c>
       <c r="D165">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E165">
-        <v>0.9997472320370522</v>
+        <v>0.9931926191078934</v>
       </c>
       <c r="F165">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G165">
-        <v>0.9885827153465576</v>
+        <v>0.9926665600057587</v>
       </c>
       <c r="H165">
-        <v>-0.01141728465344238</v>
+        <v>-0.007333439994241298</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5266,25 +5266,25 @@
         <v>172</v>
       </c>
       <c r="B166">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C166">
-        <v>1.000023612925549</v>
+        <v>1.000001330741863</v>
       </c>
       <c r="D166">
-        <v>0.9999932350101302</v>
+        <v>0.9999998658775334</v>
       </c>
       <c r="E166">
-        <v>1.000547094212513</v>
+        <v>0.9964919985945859</v>
       </c>
       <c r="F166">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G166">
-        <v>0.989370780052668</v>
+        <v>0.9959643257441446</v>
       </c>
       <c r="H166">
-        <v>-0.01062921994733201</v>
+        <v>-0.004035674255855382</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5292,25 +5292,25 @@
         <v>173</v>
       </c>
       <c r="B167">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C167">
-        <v>1.000023612925549</v>
+        <v>1.000001330741863</v>
       </c>
       <c r="D167">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E167">
-        <v>1.005773805145456</v>
+        <v>1.004548770100073</v>
       </c>
       <c r="F167">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G167">
-        <v>0.9945419876674236</v>
+        <v>1.00401669604527</v>
       </c>
       <c r="H167">
-        <v>-0.005458012332576367</v>
+        <v>0.004016696045269663</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5318,25 +5318,25 @@
         <v>174</v>
       </c>
       <c r="B168">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C168">
-        <v>0.999997991351639</v>
+        <v>0.9999991667820164</v>
       </c>
       <c r="D168">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E168">
-        <v>0.9883727808328144</v>
+        <v>1.000413754081189</v>
       </c>
       <c r="F168">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G168">
-        <v>0.9773102462228136</v>
+        <v>0.9998817064928688</v>
       </c>
       <c r="H168">
-        <v>-0.02268975377718641</v>
+        <v>-0.0001182935071312174</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5344,25 +5344,25 @@
         <v>175</v>
       </c>
       <c r="B169">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C169">
-        <v>0.999997991351639</v>
+        <v>0.9999991667820164</v>
       </c>
       <c r="D169">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E169">
-        <v>0.9999479737555828</v>
+        <v>1.000858670832236</v>
       </c>
       <c r="F169">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G169">
-        <v>0.9887563459110486</v>
+        <v>1.000326811346791</v>
       </c>
       <c r="H169">
-        <v>-0.01124365408895145</v>
+        <v>0.0003268113467909117</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5370,25 +5370,25 @@
         <v>176</v>
       </c>
       <c r="B170">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C170">
-        <v>1.000005763897169</v>
+        <v>1.000000650060232</v>
       </c>
       <c r="D170">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E170">
-        <v>1.001040532624689</v>
+        <v>0.9903371297315614</v>
       </c>
       <c r="F170">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G170">
-        <v>0.9898470107822256</v>
+        <v>0.9898122755324515</v>
       </c>
       <c r="H170">
-        <v>-0.01015298921777441</v>
+        <v>-0.01018772446754845</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5396,25 +5396,25 @@
         <v>177</v>
       </c>
       <c r="B171">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C171">
-        <v>1.000005763897169</v>
+        <v>1.000000650060232</v>
       </c>
       <c r="D171">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E171">
-        <v>1.006080932869324</v>
+        <v>0.9819879733209673</v>
       </c>
       <c r="F171">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G171">
-        <v>0.9948310498422784</v>
+        <v>0.9814675439683764</v>
       </c>
       <c r="H171">
-        <v>-0.005168950157721564</v>
+        <v>-0.01853245603162357</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5422,25 +5422,25 @@
         <v>178</v>
       </c>
       <c r="B172">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C172">
-        <v>0.999997991351639</v>
+        <v>0.9999991667820164</v>
       </c>
       <c r="D172">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E172">
-        <v>0.995340552512849</v>
+        <v>1.000094936137159</v>
       </c>
       <c r="F172">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G172">
-        <v>0.9842031174234206</v>
+        <v>0.9995634279099589</v>
       </c>
       <c r="H172">
-        <v>-0.01579688257657941</v>
+        <v>-0.0004365720900411096</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5448,25 +5448,25 @@
         <v>179</v>
       </c>
       <c r="B173">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C173">
-        <v>0.999997991351639</v>
+        <v>0.9999991667820164</v>
       </c>
       <c r="D173">
-        <v>0.9999980400991909</v>
+        <v>1.000000012831052</v>
       </c>
       <c r="E173">
-        <v>1.003676255232983</v>
+        <v>0.9841666758815873</v>
       </c>
       <c r="F173">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G173">
-        <v>0.9924443285874239</v>
+        <v>0.9836435456480357</v>
       </c>
       <c r="H173">
-        <v>-0.00755567141257607</v>
+        <v>-0.01635645435196431</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5474,25 +5474,25 @@
         <v>180</v>
       </c>
       <c r="B174">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C174">
-        <v>0.999997991351639</v>
+        <v>0.9999991667820164</v>
       </c>
       <c r="D174">
-        <v>0.9999992679820371</v>
+        <v>1.00000010148519</v>
       </c>
       <c r="E174">
-        <v>1.008655994553913</v>
+        <v>0.9894550145999393</v>
       </c>
       <c r="F174">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G174">
-        <v>0.9973695653628732</v>
+        <v>0.9889291610417409</v>
       </c>
       <c r="H174">
-        <v>-0.002630434637126755</v>
+        <v>-0.01107083895825911</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5500,25 +5500,25 @@
         <v>181</v>
       </c>
       <c r="B175">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C175">
-        <v>0.999997991351639</v>
+        <v>0.9999991667820164</v>
       </c>
       <c r="D175">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E175">
-        <v>0.9966947498932843</v>
+        <v>1.010141491439169</v>
       </c>
       <c r="F175">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G175">
-        <v>0.9855390701941631</v>
+        <v>1.009604270372195</v>
       </c>
       <c r="H175">
-        <v>-0.01446092980583691</v>
+        <v>0.009604270372195245</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5526,25 +5526,25 @@
         <v>182</v>
       </c>
       <c r="B176">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C176">
-        <v>0.999997991351639</v>
+        <v>0.9999991667820164</v>
       </c>
       <c r="D176">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E176">
-        <v>0.9796347964921184</v>
+        <v>1.002374070543996</v>
       </c>
       <c r="F176">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G176">
-        <v>0.9686705179959897</v>
+        <v>1.001841405770317</v>
       </c>
       <c r="H176">
-        <v>-0.03132948200401031</v>
+        <v>0.001841405770317106</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5552,25 +5552,25 @@
         <v>183</v>
       </c>
       <c r="B177">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C177">
-        <v>0.9999907990391337</v>
+        <v>0.9999991673642409</v>
       </c>
       <c r="D177">
-        <v>0.9999948344867189</v>
+        <v>0.9999998010627617</v>
       </c>
       <c r="E177">
-        <v>1.002420344147358</v>
+        <v>0.9991216310804447</v>
       </c>
       <c r="F177">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G177">
-        <v>0.9911921656879321</v>
+        <v>0.998590340706192</v>
       </c>
       <c r="H177">
-        <v>-0.008807834312067886</v>
+        <v>-0.001409659293807985</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5578,25 +5578,25 @@
         <v>184</v>
       </c>
       <c r="B178">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C178">
-        <v>0.9999907990391337</v>
+        <v>0.9999991673642409</v>
       </c>
       <c r="D178">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E178">
-        <v>0.9964821877526957</v>
+        <v>0.9909643403901958</v>
       </c>
       <c r="F178">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G178">
-        <v>0.9853222629025438</v>
+        <v>0.990437739360119</v>
       </c>
       <c r="H178">
-        <v>-0.01467773709745623</v>
+        <v>-0.009562260639880971</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5604,25 +5604,25 @@
         <v>185</v>
       </c>
       <c r="B179">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C179">
-        <v>0.9999907990391337</v>
+        <v>0.9999991673642409</v>
       </c>
       <c r="D179">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E179">
-        <v>0.9974395411169228</v>
+        <v>0.9945228938674648</v>
       </c>
       <c r="F179">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G179">
-        <v>0.9862688945582134</v>
+        <v>0.993994401812807</v>
       </c>
       <c r="H179">
-        <v>-0.01373110544178657</v>
+        <v>-0.00600559818719304</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5630,25 +5630,25 @@
         <v>186</v>
       </c>
       <c r="B180">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C180">
-        <v>1.000005763897169</v>
+        <v>1.000000650060232</v>
       </c>
       <c r="D180">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E180">
-        <v>0.9987620946433541</v>
+        <v>1.005671312649346</v>
       </c>
       <c r="F180">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G180">
-        <v>0.9875914154620345</v>
+        <v>1.005138386609615</v>
       </c>
       <c r="H180">
-        <v>-0.01240858453796545</v>
+        <v>0.005138386609614853</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5656,25 +5656,25 @@
         <v>187</v>
       </c>
       <c r="B181">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C181">
-        <v>0.9999907990391337</v>
+        <v>0.9999991673642409</v>
       </c>
       <c r="D181">
-        <v>0.9999948344867189</v>
+        <v>0.9999998010627617</v>
       </c>
       <c r="E181">
-        <v>1.00744714464905</v>
+        <v>1.014412352427221</v>
       </c>
       <c r="F181">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G181">
-        <v>0.9961626606552817</v>
+        <v>1.013872931097923</v>
       </c>
       <c r="H181">
-        <v>-0.003837339344718305</v>
+        <v>0.01387293109792309</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5682,25 +5682,25 @@
         <v>188</v>
       </c>
       <c r="B182">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C182">
-        <v>0.9999907990391337</v>
+        <v>0.9999991673642409</v>
       </c>
       <c r="D182">
-        <v>0.9999948344867189</v>
+        <v>0.9999998010627617</v>
       </c>
       <c r="E182">
-        <v>0.9942954301974226</v>
+        <v>0.9946400179235704</v>
       </c>
       <c r="F182">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G182">
-        <v>0.9831582594518068</v>
+        <v>0.9941111106805174</v>
       </c>
       <c r="H182">
-        <v>-0.01684174054819321</v>
+        <v>-0.005888889319482615</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5708,25 +5708,25 @@
         <v>189</v>
       </c>
       <c r="B183">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C183">
-        <v>0.9999907990391337</v>
+        <v>0.9999991673642409</v>
       </c>
       <c r="D183">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E183">
-        <v>0.9990664361357552</v>
+        <v>0.9937317554233641</v>
       </c>
       <c r="F183">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G183">
-        <v>0.9878775694559313</v>
+        <v>0.993203683781735</v>
       </c>
       <c r="H183">
-        <v>-0.0121224305440687</v>
+        <v>-0.006796316218265042</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5734,25 +5734,25 @@
         <v>190</v>
       </c>
       <c r="B184">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C184">
-        <v>0.9999907990391337</v>
+        <v>0.9999991673642409</v>
       </c>
       <c r="D184">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E184">
-        <v>1.008185790851131</v>
+        <v>0.9972579869532973</v>
       </c>
       <c r="F184">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G184">
-        <v>0.9968947935817629</v>
+        <v>0.9967280414630538</v>
       </c>
       <c r="H184">
-        <v>-0.003105206418237083</v>
+        <v>-0.003271958536946173</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5760,25 +5760,25 @@
         <v>191</v>
       </c>
       <c r="B185">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C185">
-        <v>0.9999907990391337</v>
+        <v>0.9999991673642409</v>
       </c>
       <c r="D185">
-        <v>0.9999948344867189</v>
+        <v>0.9999998010627617</v>
       </c>
       <c r="E185">
-        <v>1.016450502152682</v>
+        <v>1.002324612222503</v>
       </c>
       <c r="F185">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G185">
-        <v>1.005065170939108</v>
+        <v>1.001791618639155</v>
       </c>
       <c r="H185">
-        <v>0.005065170939107855</v>
+        <v>0.001791618639154891</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5786,25 +5786,25 @@
         <v>192</v>
       </c>
       <c r="B186">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C186">
-        <v>0.9999907990391337</v>
+        <v>0.9999991673642409</v>
       </c>
       <c r="D186">
-        <v>0.9999948344867189</v>
+        <v>0.9999998010627617</v>
       </c>
       <c r="E186">
-        <v>1.011948999688518</v>
+        <v>1.001240622646342</v>
       </c>
       <c r="F186">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G186">
-        <v>1.000614090110237</v>
+        <v>1.000708205482531</v>
       </c>
       <c r="H186">
-        <v>0.0006140901102371643</v>
+        <v>0.0007082054825306994</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5812,25 +5812,25 @@
         <v>193</v>
       </c>
       <c r="B187">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C187">
-        <v>0.9999907990391337</v>
+        <v>0.9999991673642409</v>
       </c>
       <c r="D187">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E187">
-        <v>0.9976599641801329</v>
+        <v>0.9987768806364279</v>
       </c>
       <c r="F187">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G187">
-        <v>0.9864868490325707</v>
+        <v>0.9982461280021273</v>
       </c>
       <c r="H187">
-        <v>-0.01351315096742933</v>
+        <v>-0.001753871997872691</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5838,25 +5838,25 @@
         <v>194</v>
       </c>
       <c r="B188">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C188">
-        <v>1.000005763897169</v>
+        <v>1.000000650060232</v>
       </c>
       <c r="D188">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E188">
-        <v>0.9982136757195607</v>
+        <v>0.9988607302549435</v>
       </c>
       <c r="F188">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G188">
-        <v>0.987048667014885</v>
+        <v>0.9983309894091144</v>
       </c>
       <c r="H188">
-        <v>-0.01295133298511497</v>
+        <v>-0.001669010590885645</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5864,25 +5864,25 @@
         <v>195</v>
       </c>
       <c r="B189">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C189">
-        <v>1.000005763897169</v>
+        <v>1.000000650060232</v>
       </c>
       <c r="D189">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E189">
-        <v>0.9898028733069366</v>
+        <v>0.9972787384090629</v>
       </c>
       <c r="F189">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G189">
-        <v>0.9787319393323859</v>
+        <v>0.9967498365647813</v>
       </c>
       <c r="H189">
-        <v>-0.02126806066761411</v>
+        <v>-0.003250163435218667</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5890,25 +5890,25 @@
         <v>196</v>
       </c>
       <c r="B190">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C190">
-        <v>1.000005763897169</v>
+        <v>1.000000650060232</v>
       </c>
       <c r="D190">
-        <v>0.9999961309088267</v>
+        <v>0.9999997315186788</v>
       </c>
       <c r="E190">
-        <v>1.003068347496394</v>
+        <v>1.001033785413348</v>
       </c>
       <c r="F190">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G190">
-        <v>0.9918490393426473</v>
+        <v>1.000502892098468</v>
       </c>
       <c r="H190">
-        <v>-0.008150960657352657</v>
+        <v>0.0005028920984677665</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5916,25 +5916,25 @@
         <v>197</v>
       </c>
       <c r="B191">
-        <v>0.9999978112292668</v>
+        <v>0.9999997066999738</v>
       </c>
       <c r="C191">
-        <v>0.9999967190309149</v>
+        <v>0.9999999518634498</v>
       </c>
       <c r="D191">
-        <v>0.999996600314747</v>
+        <v>1.000000156101844</v>
       </c>
       <c r="E191">
-        <v>1.004243546554358</v>
+        <v>0.9850665094115829</v>
       </c>
       <c r="F191">
-        <v>0.9888153019813775</v>
+        <v>0.9994695667163263</v>
       </c>
       <c r="G191">
-        <v>0.9930025783345128</v>
+        <v>0.984543814878122</v>
       </c>
       <c r="H191">
-        <v>-0.006997421665487225</v>
+        <v>-0.01545618512187796</v>
       </c>
     </row>
   </sheetData>
